--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD29"/>
+  <dimension ref="A1:BD26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,39 +596,39 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
-        </is>
-      </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-0_HT</t>
@@ -676,42 +676,42 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2_HT</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2_HT</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3_HT</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3_HT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3_HT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_3-3_HT</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_4-4_HT</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1_HT</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2_HT</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2_HT</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3_HT</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
     </row>
@@ -746,55 +746,153 @@
           <t>Bolivar</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
-      <c r="BA2" t="inlineStr"/>
-      <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N2" t="n">
+        <v>17</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>15</v>
+      </c>
+      <c r="X2" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>351</v>
+      </c>
       <c r="BD2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -828,39 +926,105 @@
           <t>Always Ready</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N3" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="X3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>35</v>
+      </c>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr"/>
@@ -910,54 +1074,150 @@
           <t>Nacional Potosi</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="inlineStr"/>
-      <c r="AV4" t="inlineStr"/>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr"/>
-      <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="inlineStr"/>
-      <c r="BA4" t="inlineStr"/>
-      <c r="BB4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W4" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X4" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>65</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>250</v>
+      </c>
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
     </row>
@@ -1071,25 +1331,25 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH5" t="n">
         <v>9.5</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AI5" t="n">
         <v>17</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AJ5" t="n">
         <v>13</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AK5" t="n">
         <v>41</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AL5" t="n">
         <v>29</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AM5" t="n">
         <v>41</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>351</v>
       </c>
       <c r="AN5" t="n">
         <v>4</v>
@@ -1119,28 +1379,28 @@
         <v>67</v>
       </c>
       <c r="AW5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC5" t="n">
         <v>126</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="BD5" t="n">
         <v>126</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>29</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>251</v>
       </c>
     </row>
     <row r="6">
@@ -1193,10 +1453,10 @@
         <v>4.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -1247,30 +1507,30 @@
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
         <v>67</v>
       </c>
-      <c r="AG6" t="n">
-        <v>9.5</v>
-      </c>
+      <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI6" t="n">
         <v>19</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AJ6" t="n">
         <v>15</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>41</v>
       </c>
       <c r="AK6" t="n">
         <v>41</v>
       </c>
       <c r="AL6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="n">
         <v>51</v>
       </c>
-      <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="n">
         <v>3.75</v>
       </c>
@@ -1299,28 +1559,28 @@
         <v>67</v>
       </c>
       <c r="AW6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA6" t="n">
         <v>126</v>
       </c>
-      <c r="AX6" t="n">
-        <v>126</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>34</v>
-      </c>
       <c r="BB6" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
@@ -1361,7 +1621,7 @@
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
         <v>2.88</v>
@@ -1373,22 +1633,22 @@
         <v>4.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R7" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S7" t="n">
         <v>1.53</v>
@@ -1433,16 +1693,16 @@
         <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI7" t="n">
         <v>19</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AJ7" t="n">
         <v>15</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>41</v>
       </c>
       <c r="AK7" t="n">
         <v>41</v>
@@ -1451,7 +1711,7 @@
         <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>51</v>
       </c>
       <c r="AN7" t="n">
         <v>4</v>
@@ -1481,28 +1741,28 @@
         <v>67</v>
       </c>
       <c r="AW7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA7" t="n">
         <v>126</v>
       </c>
-      <c r="AX7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>34</v>
-      </c>
       <c r="BB7" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
@@ -1555,13 +1815,13 @@
         <v>3.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
         <v>10</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
         <v>3.25</v>
@@ -1615,25 +1875,25 @@
         <v>51</v>
       </c>
       <c r="AG8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH8" t="n">
         <v>9.5</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AI8" t="n">
         <v>15</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AJ8" t="n">
         <v>12</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AK8" t="n">
         <v>34</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AL8" t="n">
         <v>26</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AM8" t="n">
         <v>34</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>251</v>
       </c>
       <c r="AN8" t="n">
         <v>4.33</v>
@@ -1663,28 +1923,28 @@
         <v>51</v>
       </c>
       <c r="AW8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA8" t="n">
         <v>81</v>
       </c>
-      <c r="AX8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>29</v>
-      </c>
       <c r="BB8" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="BC8" t="n">
         <v>81</v>
       </c>
       <c r="BD8" t="n">
-        <v>201</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
@@ -1725,7 +1985,7 @@
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J9" t="n">
         <v>2.63</v>
@@ -1737,22 +1997,22 @@
         <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
         <v>3.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S9" t="n">
         <v>1.44</v>
@@ -1797,25 +2057,25 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.5</v>
+        <v>301</v>
       </c>
       <c r="AH9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI9" t="n">
         <v>19</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AJ9" t="n">
         <v>13</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AK9" t="n">
         <v>41</v>
       </c>
-      <c r="AK9" t="n">
-        <v>29</v>
-      </c>
       <c r="AL9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM9" t="n">
         <v>41</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>301</v>
       </c>
       <c r="AN9" t="n">
         <v>4</v>
@@ -1824,7 +2084,7 @@
         <v>11</v>
       </c>
       <c r="AP9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ9" t="n">
         <v>41</v>
@@ -1839,34 +2099,34 @@
         <v>2.63</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
         <v>51</v>
       </c>
       <c r="AW9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC9" t="n">
         <v>126</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="BD9" t="n">
         <v>151</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>29</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>251</v>
       </c>
     </row>
     <row r="10">
@@ -1901,37 +2161,37 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H10" t="n">
         <v>4.2</v>
       </c>
       <c r="I10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K10" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L10" t="n">
         <v>7</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
         <v>11</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R10" t="n">
         <v>2</v>
@@ -1964,10 +2224,10 @@
         <v>12</v>
       </c>
       <c r="AB10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
         <v>8</v>
@@ -1979,25 +2239,25 @@
         <v>67</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>351</v>
       </c>
       <c r="AH10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI10" t="n">
         <v>41</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AJ10" t="n">
         <v>23</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AK10" t="n">
         <v>81</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>51</v>
       </c>
       <c r="AL10" t="n">
         <v>51</v>
       </c>
       <c r="AM10" t="n">
-        <v>401</v>
+        <v>51</v>
       </c>
       <c r="AN10" t="n">
         <v>3.25</v>
@@ -2021,34 +2281,34 @@
         <v>3</v>
       </c>
       <c r="AU10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
         <v>67</v>
       </c>
       <c r="AW10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>151</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="BA10" t="n">
         <v>151</v>
       </c>
-      <c r="AY10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>41</v>
-      </c>
       <c r="BB10" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC10" t="n">
         <v>151</v>
       </c>
       <c r="BD10" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
@@ -2083,13 +2343,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H11" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J11" t="n">
         <v>2.05</v>
@@ -2161,25 +2421,25 @@
         <v>51</v>
       </c>
       <c r="AG11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH11" t="n">
         <v>17</v>
       </c>
-      <c r="AH11" t="n">
-        <v>29</v>
-      </c>
       <c r="AI11" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AJ11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK11" t="n">
         <v>67</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>41</v>
       </c>
       <c r="AL11" t="n">
         <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>251</v>
+        <v>41</v>
       </c>
       <c r="AN11" t="n">
         <v>3.5</v>
@@ -2191,7 +2451,7 @@
         <v>17</v>
       </c>
       <c r="AQ11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR11" t="n">
         <v>41</v>
@@ -2209,28 +2469,28 @@
         <v>51</v>
       </c>
       <c r="AW11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC11" t="n">
         <v>151</v>
       </c>
-      <c r="AX11" t="n">
+      <c r="BD11" t="n">
         <v>151</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>34</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>251</v>
       </c>
     </row>
     <row r="12">
@@ -2343,25 +2603,25 @@
         <v>51</v>
       </c>
       <c r="AG12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH12" t="n">
         <v>7</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AI12" t="n">
         <v>10</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AJ12" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>21</v>
       </c>
       <c r="AK12" t="n">
         <v>21</v>
       </c>
       <c r="AL12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM12" t="n">
         <v>34</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>351</v>
       </c>
       <c r="AN12" t="n">
         <v>5</v>
@@ -2391,28 +2651,28 @@
         <v>67</v>
       </c>
       <c r="AW12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC12" t="n">
         <v>126</v>
       </c>
-      <c r="AX12" t="n">
+      <c r="BD12" t="n">
         <v>151</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>26</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>41</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>67</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>201</v>
       </c>
     </row>
     <row r="13">
@@ -2447,7 +2707,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
         <v>3.4</v>
@@ -2456,7 +2716,7 @@
         <v>2.8</v>
       </c>
       <c r="J13" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
         <v>2.05</v>
@@ -2495,7 +2755,7 @@
         <v>1.8</v>
       </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X13" t="n">
         <v>11</v>
@@ -2525,28 +2785,28 @@
         <v>51</v>
       </c>
       <c r="AG13" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH13" t="n">
         <v>8</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AI13" t="n">
         <v>13</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AJ13" t="n">
         <v>11</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AK13" t="n">
         <v>29</v>
       </c>
-      <c r="AK13" t="n">
-        <v>26</v>
-      </c>
       <c r="AL13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM13" t="n">
         <v>34</v>
       </c>
-      <c r="AM13" t="n">
-        <v>351</v>
-      </c>
       <c r="AN13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO13" t="n">
         <v>15</v>
@@ -2558,7 +2818,7 @@
         <v>51</v>
       </c>
       <c r="AR13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS13" t="n">
         <v>201</v>
@@ -2573,28 +2833,28 @@
         <v>51</v>
       </c>
       <c r="AW13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC13" t="n">
         <v>126</v>
       </c>
-      <c r="AX13" t="n">
+      <c r="BD13" t="n">
         <v>151</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>29</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>201</v>
       </c>
     </row>
     <row r="14">
@@ -3057,10 +3317,10 @@
         <v>2.6</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O19" t="n">
         <v>1.29</v>
@@ -3069,10 +3329,10 @@
         <v>3.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R19" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S19" t="n">
         <v>1.4</v>
@@ -3117,25 +3377,25 @@
         <v>51</v>
       </c>
       <c r="AG19" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH19" t="n">
         <v>7.5</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AI19" t="n">
         <v>9</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AJ19" t="n">
         <v>8.5</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AK19" t="n">
         <v>17</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AL19" t="n">
         <v>15</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AM19" t="n">
         <v>26</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>251</v>
       </c>
       <c r="AN19" t="n">
         <v>6</v>
@@ -3164,31 +3424,31 @@
       <c r="AV19" t="n">
         <v>51</v>
       </c>
-      <c r="AW19" t="inlineStr"/>
-      <c r="AX19" t="inlineStr"/>
+      <c r="AW19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>10</v>
+      </c>
       <c r="AY19" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="AZ19" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="BA19" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="BB19" t="n">
-        <v>34</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD19" t="n">
         <v>151</v>
       </c>
+      <c r="BC19" t="inlineStr"/>
+      <c r="BD19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>x2BD1EaU</t>
+          <t>0tUjsnHa</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3198,7 +3458,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3208,169 +3468,169 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Atl. San Luis</t>
+          <t>Club America</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>U.A.N.L.- Tigres</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="H20" t="n">
         <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="J20" t="n">
-        <v>3.6</v>
+        <v>2.63</v>
       </c>
       <c r="K20" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L20" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
+        <v>13</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE20" t="n">
         <v>12</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W20" t="n">
-        <v>11</v>
-      </c>
-      <c r="X20" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>13</v>
       </c>
       <c r="AF20" t="n">
         <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="AH20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO20" t="n">
         <v>11</v>
       </c>
-      <c r="AI20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>17</v>
-      </c>
       <c r="AP20" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR20" t="n">
         <v>51</v>
       </c>
-      <c r="AR20" t="n">
-        <v>67</v>
-      </c>
       <c r="AS20" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT20" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU20" t="n">
         <v>7.5</v>
       </c>
       <c r="AV20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ20" t="n">
         <v>51</v>
       </c>
-      <c r="AW20" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>126</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>12</v>
-      </c>
       <c r="BA20" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="BB20" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="BC20" t="n">
-        <v>51</v>
+        <v>451</v>
       </c>
       <c r="BD20" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0tUjsnHa</t>
+          <t>C66nTKo1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3380,179 +3640,179 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Club America</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="H21" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I21" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="J21" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="K21" t="n">
         <v>2.3</v>
       </c>
       <c r="L21" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
+        <v>11</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA21" t="n">
         <v>13</v>
       </c>
-      <c r="O21" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W21" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X21" t="n">
+      <c r="AB21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC21" t="n">
         <v>11</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>13</v>
       </c>
       <c r="AD21" t="n">
         <v>7</v>
       </c>
       <c r="AE21" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL21" t="n">
         <v>41</v>
       </c>
-      <c r="AG21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ21" t="n">
+      <c r="AM21" t="n">
         <v>41</v>
       </c>
-      <c r="AK21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>126</v>
-      </c>
       <c r="AN21" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="AO21" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AP21" t="n">
         <v>19</v>
       </c>
       <c r="AQ21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY21" t="n">
         <v>34</v>
       </c>
-      <c r="AR21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS21" t="n">
+      <c r="AZ21" t="n">
         <v>101</v>
       </c>
-      <c r="AT21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>451</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>151</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>17</v>
-      </c>
       <c r="BA21" t="n">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="BB21" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="BC21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BD21" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C81gKcbc</t>
+          <t>KCTDqtWs</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3562,177 +3822,179 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Club Tijuana</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="H22" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="K22" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L22" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T22" t="n">
         <v>2.63</v>
       </c>
-      <c r="M22" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N22" t="n">
-        <v>11</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U22" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W22" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="X22" t="n">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Z22" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AA22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB22" t="n">
         <v>29</v>
       </c>
-      <c r="AB22" t="n">
-        <v>34</v>
-      </c>
       <c r="AC22" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AD22" t="n">
         <v>6.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK22" t="n">
         <v>41</v>
       </c>
-      <c r="AG22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>17</v>
-      </c>
       <c r="AL22" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AM22" t="n">
-        <v>201</v>
+        <v>41</v>
       </c>
       <c r="AN22" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO22" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AP22" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV22" t="n">
         <v>67</v>
       </c>
-      <c r="AR22" t="n">
+      <c r="AW22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ22" t="n">
         <v>81</v>
       </c>
-      <c r="AS22" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX22" t="inlineStr"/>
-      <c r="AY22" t="n">
-        <v>4</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>11</v>
-      </c>
       <c r="BA22" t="n">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="BB22" t="n">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="BC22" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD22" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>zwFd5d05</t>
+          <t>0vJhfpLl</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3742,29 +4004,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>Fenix</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>U.N.A.M.- Pumas</t>
+          <t>Maldonado</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H23" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
         <v>3.9</v>
@@ -3776,43 +4038,43 @@
         <v>2.05</v>
       </c>
       <c r="L23" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O23" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R23" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S23" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T23" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U23" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W23" t="n">
         <v>6.5</v>
       </c>
       <c r="X23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y23" t="n">
         <v>9</v>
@@ -3821,49 +4083,49 @@
         <v>17</v>
       </c>
       <c r="AA23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC23" t="n">
         <v>8</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>1250</v>
       </c>
       <c r="AH23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI23" t="n">
         <v>19</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AJ23" t="n">
         <v>13</v>
       </c>
-      <c r="AJ23" t="n">
+      <c r="AK23" t="n">
         <v>41</v>
       </c>
-      <c r="AK23" t="n">
+      <c r="AL23" t="n">
         <v>34</v>
       </c>
-      <c r="AL23" t="n">
+      <c r="AM23" t="n">
         <v>41</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>351</v>
       </c>
       <c r="AN23" t="n">
         <v>4</v>
       </c>
       <c r="AO23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP23" t="n">
         <v>23</v>
@@ -3878,7 +4140,7 @@
         <v>201</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU23" t="n">
         <v>8.5</v>
@@ -3887,34 +4149,30 @@
         <v>67</v>
       </c>
       <c r="AW23" t="n">
-        <v>126</v>
+        <v>5.5</v>
       </c>
       <c r="AX23" t="n">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="AY23" t="n">
-        <v>5.5</v>
+        <v>34</v>
       </c>
       <c r="AZ23" t="n">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="BA23" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="BB23" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>251</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="BC23" t="inlineStr"/>
+      <c r="BD23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C66nTKo1</t>
+          <t>8A59j2KD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3924,179 +4182,175 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Boston River</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Racing Montevideo</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.62</v>
+        <v>2.5</v>
       </c>
       <c r="H24" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="K24" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L24" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X24" t="n">
         <v>11</v>
       </c>
-      <c r="O24" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P24" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T24" t="n">
-        <v>3</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W24" t="n">
+      <c r="Y24" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH24" t="n">
         <v>7.5</v>
       </c>
-      <c r="X24" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z24" t="n">
+      <c r="AI24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>12</v>
       </c>
-      <c r="AA24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE24" t="n">
+      <c r="AK24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO24" t="n">
         <v>15</v>
       </c>
-      <c r="AF24" t="n">
+      <c r="AP24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ24" t="n">
         <v>51</v>
       </c>
-      <c r="AG24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP24" t="n">
+      <c r="AR24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX24" t="n">
         <v>19</v>
       </c>
-      <c r="AQ24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>81</v>
-      </c>
       <c r="AY24" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="AZ24" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="BA24" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="BB24" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>201</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="BC24" t="inlineStr"/>
+      <c r="BD24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>KCTDqtWs</t>
+          <t>YTYD1SSE</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4106,65 +4360,65 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="J25" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="K25" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O25" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P25" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.08</v>
+        <v>2.35</v>
       </c>
       <c r="R25" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="S25" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="T25" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="U25" t="n">
         <v>1.91</v>
@@ -4173,76 +4427,76 @@
         <v>1.8</v>
       </c>
       <c r="W25" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="X25" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE25" t="n">
         <v>15</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>17</v>
       </c>
       <c r="AF25" t="n">
         <v>51</v>
       </c>
       <c r="AG25" t="n">
-        <v>12</v>
+        <v>351</v>
       </c>
       <c r="AH25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK25" t="n">
         <v>23</v>
       </c>
-      <c r="AI25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ25" t="n">
+      <c r="AL25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ25" t="n">
         <v>51</v>
       </c>
-      <c r="AK25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>34</v>
-      </c>
       <c r="AR25" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS25" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AU25" t="n">
         <v>8.5</v>
@@ -4251,34 +4505,34 @@
         <v>67</v>
       </c>
       <c r="AW25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA25" t="n">
         <v>81</v>
       </c>
-      <c r="AX25" t="n">
-        <v>81</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>34</v>
-      </c>
       <c r="BB25" t="n">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="BC25" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD25" t="n">
-        <v>251</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0vJhfpLl</t>
+          <t>Mg71hOk1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4288,7 +4542,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4298,696 +4552,158 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Fenix</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Maldonado</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="G26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="J26" t="n">
+        <v>9</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L26" t="n">
         <v>1.95</v>
       </c>
-      <c r="H26" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L26" t="n">
-        <v>4.5</v>
-      </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
+        <v>10</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W26" t="n">
+        <v>13</v>
+      </c>
+      <c r="X26" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC26" t="n">
         <v>9</v>
       </c>
-      <c r="O26" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W26" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X26" t="n">
+      <c r="AD26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK26" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y26" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG26" t="n">
+      <c r="AL26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN26" t="n">
         <v>9.5</v>
       </c>
-      <c r="AH26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ26" t="n">
+      <c r="AO26" t="n">
         <v>41</v>
       </c>
-      <c r="AK26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO26" t="n">
+      <c r="AP26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>251</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>301</v>
+      </c>
+      <c r="AS26" t="inlineStr"/>
+      <c r="AT26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU26" t="n">
         <v>11</v>
       </c>
-      <c r="AP26" t="n">
+      <c r="AV26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY26" t="n">
         <v>23</v>
       </c>
-      <c r="AQ26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW26" t="inlineStr"/>
-      <c r="AX26" t="inlineStr"/>
-      <c r="AY26" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AZ26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA26" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BB26" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>8A59j2KD</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>27/11/2024</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Boston River</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Racing Montevideo</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H27" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N27" t="n">
-        <v>7</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P27" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X27" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS27" t="n">
         <v>251</v>
       </c>
-      <c r="AT27" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW27" t="inlineStr"/>
-      <c r="AX27" t="inlineStr"/>
-      <c r="AY27" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>34</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>YTYD1SSE</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>27/11/2024</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>18:45</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Cerro Largo</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Defensor Sp.</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>3</v>
-      </c>
-      <c r="H28" t="n">
-        <v>3</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N28" t="n">
-        <v>7</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W28" t="n">
-        <v>8</v>
-      </c>
-      <c r="X28" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>29</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Mg71hOk1</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>27/11/2024</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>21:15</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Danubio</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Nacional</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>7</v>
-      </c>
-      <c r="H29" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="J29" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N29" t="n">
-        <v>10</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W29" t="n">
-        <v>13</v>
-      </c>
-      <c r="X29" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>67</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>67</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>201</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>301</v>
-      </c>
-      <c r="AS29" t="inlineStr"/>
-      <c r="AT29" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW29" t="inlineStr"/>
-      <c r="AX29" t="inlineStr"/>
-      <c r="AY29" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>23</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>23</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>201</v>
-      </c>
+      <c r="BC26" t="inlineStr"/>
+      <c r="BD26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -927,119 +927,149 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.19</v>
+        <v>2.3</v>
       </c>
       <c r="K3" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="L3" t="n">
-        <v>4.84</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>11.8</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>3.98</v>
+        <v>4.33</v>
       </c>
       <c r="Q3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U3" t="n">
         <v>1.67</v>
       </c>
-      <c r="R3" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.66</v>
-      </c>
       <c r="V3" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="W3" t="n">
-        <v>6.6</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.6</v>
+        <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AB3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS3" t="n">
         <v>101</v>
       </c>
-      <c r="AH3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>35</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
-      <c r="BA3" t="inlineStr"/>
-      <c r="BB3" t="inlineStr"/>
+      <c r="AT3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>151</v>
+      </c>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
     </row>
@@ -1075,67 +1105,67 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.32</v>
+        <v>2.15</v>
       </c>
       <c r="H4" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.77</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K4" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="O4" t="n">
         <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="R4" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="S4" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="T4" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V4" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
         <v>26</v>
@@ -1144,28 +1174,28 @@
         <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
         <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>400</v>
+        <v>151</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
-        <v>10.25</v>
+        <v>12</v>
       </c>
       <c r="AK4" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL4" t="n">
         <v>23</v>
@@ -1174,49 +1204,49 @@
         <v>29</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
       <c r="AO4" t="n">
         <v>12</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="AX4" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AY4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ4" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="BA4" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="BB4" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
@@ -1624,19 +1654,19 @@
         <v>4.1</v>
       </c>
       <c r="J7" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K7" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
         <v>4.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1657,10 +1687,10 @@
         <v>2.38</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W7" t="n">
         <v>6</v>
@@ -1687,7 +1717,7 @@
         <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
         <v>67</v>
@@ -1711,7 +1741,7 @@
         <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN7" t="n">
         <v>4</v>
@@ -1729,7 +1759,7 @@
         <v>67</v>
       </c>
       <c r="AS7" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT7" t="n">
         <v>2.38</v>
@@ -1756,7 +1786,7 @@
         <v>126</v>
       </c>
       <c r="BB7" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
@@ -1797,13 +1827,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
@@ -1827,10 +1857,10 @@
         <v>3.25</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R8" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S8" t="n">
         <v>1.44</v>
@@ -1926,10 +1956,10 @@
         <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
         <v>51</v>
@@ -2009,10 +2039,10 @@
         <v>3.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S9" t="n">
         <v>1.44</v>
@@ -2164,7 +2194,7 @@
         <v>1.42</v>
       </c>
       <c r="H10" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I10" t="n">
         <v>8</v>
@@ -2179,37 +2209,37 @@
         <v>7</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.8</v>
       </c>
-      <c r="R10" t="n">
-        <v>2</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X10" t="n">
         <v>6.5</v>
@@ -2227,16 +2257,16 @@
         <v>26</v>
       </c>
       <c r="AC10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE10" t="n">
         <v>19</v>
       </c>
       <c r="AF10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
         <v>351</v>
@@ -2260,7 +2290,7 @@
         <v>51</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO10" t="n">
         <v>7</v>
@@ -2278,13 +2308,13 @@
         <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU10" t="n">
         <v>9</v>
       </c>
       <c r="AV10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW10" t="n">
         <v>8.5</v>
@@ -2302,7 +2332,7 @@
         <v>151</v>
       </c>
       <c r="BB10" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC10" t="n">
         <v>151</v>
@@ -2543,10 +2573,10 @@
         <v>3.1</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
         <v>1.4</v>
@@ -2888,54 +2918,150 @@
           <t>Dinamo Batumi</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
-      <c r="AT14" t="inlineStr"/>
-      <c r="AU14" t="inlineStr"/>
-      <c r="AV14" t="inlineStr"/>
-      <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="inlineStr"/>
-      <c r="AZ14" t="inlineStr"/>
-      <c r="BA14" t="inlineStr"/>
-      <c r="BB14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="W14" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="X14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>350</v>
+      </c>
       <c r="BC14" t="inlineStr"/>
       <c r="BD14" t="inlineStr"/>
     </row>
@@ -2970,54 +3096,150 @@
           <t>Dila Gori</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
-      <c r="AT15" t="inlineStr"/>
-      <c r="AU15" t="inlineStr"/>
-      <c r="AV15" t="inlineStr"/>
-      <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="inlineStr"/>
-      <c r="AY15" t="inlineStr"/>
-      <c r="AZ15" t="inlineStr"/>
-      <c r="BA15" t="inlineStr"/>
-      <c r="BB15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>60</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>250</v>
+      </c>
       <c r="BC15" t="inlineStr"/>
       <c r="BD15" t="inlineStr"/>
     </row>
@@ -3052,54 +3274,150 @@
           <t>Samgurali</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
-      <c r="AT16" t="inlineStr"/>
-      <c r="AU16" t="inlineStr"/>
-      <c r="AV16" t="inlineStr"/>
-      <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="inlineStr"/>
-      <c r="AY16" t="inlineStr"/>
-      <c r="AZ16" t="inlineStr"/>
-      <c r="BA16" t="inlineStr"/>
-      <c r="BB16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="W16" t="n">
+        <v>7</v>
+      </c>
+      <c r="X16" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>65</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>250</v>
+      </c>
       <c r="BC16" t="inlineStr"/>
       <c r="BD16" t="inlineStr"/>
     </row>
@@ -3134,54 +3452,150 @@
           <t>Kolkheti 1913</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="inlineStr"/>
-      <c r="AN17" t="inlineStr"/>
-      <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr"/>
-      <c r="AT17" t="inlineStr"/>
-      <c r="AU17" t="inlineStr"/>
-      <c r="AV17" t="inlineStr"/>
-      <c r="AW17" t="inlineStr"/>
-      <c r="AX17" t="inlineStr"/>
-      <c r="AY17" t="inlineStr"/>
-      <c r="AZ17" t="inlineStr"/>
-      <c r="BA17" t="inlineStr"/>
-      <c r="BB17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L17" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N17" t="n">
+        <v>18</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="W17" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="X17" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>37</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>37</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>37</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>250</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>450</v>
+      </c>
       <c r="BC17" t="inlineStr"/>
       <c r="BD17" t="inlineStr"/>
     </row>
@@ -3216,54 +3630,150 @@
           <t>Gagra</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="inlineStr"/>
-      <c r="AM18" t="inlineStr"/>
-      <c r="AN18" t="inlineStr"/>
-      <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr"/>
-      <c r="AT18" t="inlineStr"/>
-      <c r="AU18" t="inlineStr"/>
-      <c r="AV18" t="inlineStr"/>
-      <c r="AW18" t="inlineStr"/>
-      <c r="AX18" t="inlineStr"/>
-      <c r="AY18" t="inlineStr"/>
-      <c r="AZ18" t="inlineStr"/>
-      <c r="BA18" t="inlineStr"/>
-      <c r="BB18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W18" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="X18" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>25</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>150</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>175</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>400</v>
+      </c>
       <c r="BC18" t="inlineStr"/>
       <c r="BD18" t="inlineStr"/>
     </row>
@@ -3299,22 +3809,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="J19" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K19" t="n">
         <v>2.2</v>
       </c>
       <c r="L19" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
@@ -3329,10 +3839,10 @@
         <v>3.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R19" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S19" t="n">
         <v>1.4</v>
@@ -3365,10 +3875,10 @@
         <v>41</v>
       </c>
       <c r="AC19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
@@ -3383,13 +3893,13 @@
         <v>7.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ19" t="n">
         <v>8.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL19" t="n">
         <v>15</v>
@@ -3401,16 +3911,16 @@
         <v>6</v>
       </c>
       <c r="AO19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP19" t="n">
         <v>29</v>
       </c>
       <c r="AQ19" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR19" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS19" t="n">
         <v>201</v>
@@ -3425,7 +3935,7 @@
         <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX19" t="n">
         <v>10</v>
@@ -3477,16 +3987,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
         <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J20" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K20" t="n">
         <v>2.3</v>
@@ -3495,22 +4005,22 @@
         <v>3.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P20" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R20" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S20" t="n">
         <v>1.33</v>
@@ -3564,7 +4074,7 @@
         <v>21</v>
       </c>
       <c r="AJ20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK20" t="n">
         <v>41</v>
@@ -3606,7 +4116,7 @@
         <v>5.5</v>
       </c>
       <c r="AX20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY20" t="n">
         <v>23</v>
@@ -3683,16 +4193,16 @@
         <v>11</v>
       </c>
       <c r="O21" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S21" t="n">
         <v>1.36</v>
@@ -3722,7 +4232,7 @@
         <v>13</v>
       </c>
       <c r="AB21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC21" t="n">
         <v>11</v>
@@ -3737,7 +4247,7 @@
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH21" t="n">
         <v>15</v>
@@ -3779,7 +4289,7 @@
         <v>3</v>
       </c>
       <c r="AU21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV21" t="n">
         <v>51</v>
@@ -3800,7 +4310,7 @@
         <v>101</v>
       </c>
       <c r="BB21" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC21" t="n">
         <v>81</v>
@@ -3862,19 +4372,19 @@
         <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P22" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R22" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S22" t="n">
         <v>1.44</v>
@@ -4379,13 +4889,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H25" t="n">
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J25" t="n">
         <v>3.75</v>
@@ -4430,16 +4940,16 @@
         <v>8</v>
       </c>
       <c r="X25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y25" t="n">
         <v>12</v>
       </c>
       <c r="Z25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA25" t="n">
         <v>29</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>26</v>
       </c>
       <c r="AB25" t="n">
         <v>41</v>
@@ -4472,7 +4982,7 @@
         <v>23</v>
       </c>
       <c r="AL25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM25" t="n">
         <v>34</v>
@@ -4481,7 +4991,7 @@
         <v>4.75</v>
       </c>
       <c r="AO25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP25" t="n">
         <v>29</v>
@@ -4490,7 +5000,7 @@
         <v>51</v>
       </c>
       <c r="AR25" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS25" t="n">
         <v>251</v>
@@ -4591,10 +5101,10 @@
         <v>3</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R26" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S26" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
         <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -777,10 +777,10 @@
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R2" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S2" t="n">
         <v>1.29</v>
@@ -798,25 +798,25 @@
         <v>15</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
         <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
         <v>17</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -831,25 +831,25 @@
         <v>11</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ2" t="n">
         <v>9</v>
       </c>
       <c r="AK2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM2" t="n">
         <v>19</v>
       </c>
-      <c r="AL2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>21</v>
-      </c>
       <c r="AN2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP2" t="n">
         <v>21</v>
@@ -876,19 +876,19 @@
         <v>4.33</v>
       </c>
       <c r="AX2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY2" t="n">
         <v>17</v>
       </c>
       <c r="AZ2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA2" t="n">
         <v>41</v>
       </c>
       <c r="BB2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC2" t="n">
         <v>351</v>
@@ -1111,7 +1111,7 @@
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J4" t="n">
         <v>2.88</v>
@@ -1845,10 +1845,10 @@
         <v>3.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
         <v>1.33</v>
@@ -1857,10 +1857,10 @@
         <v>3.25</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S8" t="n">
         <v>1.44</v>
@@ -2191,7 +2191,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H10" t="n">
         <v>4.33</v>
@@ -2200,10 +2200,10 @@
         <v>8</v>
       </c>
       <c r="J10" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K10" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L10" t="n">
         <v>7</v>
@@ -2212,7 +2212,7 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O10" t="n">
         <v>1.22</v>
@@ -2248,7 +2248,7 @@
         <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA10" t="n">
         <v>12</v>
@@ -2299,13 +2299,13 @@
         <v>19</v>
       </c>
       <c r="AQ10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR10" t="n">
         <v>41</v>
       </c>
       <c r="AS10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT10" t="n">
         <v>3.25</v>
@@ -2373,22 +2373,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H11" t="n">
         <v>4.1</v>
       </c>
       <c r="I11" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J11" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K11" t="n">
         <v>2.38</v>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2403,10 +2403,10 @@
         <v>4.33</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S11" t="n">
         <v>1.33</v>
@@ -2415,22 +2415,22 @@
         <v>3.25</v>
       </c>
       <c r="U11" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V11" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA11" t="n">
         <v>12</v>
@@ -2442,16 +2442,16 @@
         <v>13</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH11" t="n">
         <v>17</v>
@@ -2463,7 +2463,7 @@
         <v>19</v>
       </c>
       <c r="AK11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL11" t="n">
         <v>41</v>
@@ -2472,7 +2472,7 @@
         <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO11" t="n">
         <v>7.5</v>
@@ -2493,13 +2493,13 @@
         <v>3.25</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX11" t="n">
         <v>29</v>
@@ -2511,13 +2511,13 @@
         <v>101</v>
       </c>
       <c r="BA11" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB11" t="n">
         <v>201</v>
       </c>
       <c r="BC11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD11" t="n">
         <v>151</v>
@@ -2573,10 +2573,10 @@
         <v>3.1</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
         <v>1.4</v>
@@ -2737,13 +2737,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H13" t="n">
         <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J13" t="n">
         <v>3.25</v>
@@ -2752,7 +2752,7 @@
         <v>2.05</v>
       </c>
       <c r="L13" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
@@ -2773,16 +2773,16 @@
         <v>1.67</v>
       </c>
       <c r="S13" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T13" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U13" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V13" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W13" t="n">
         <v>7.5</v>
@@ -2824,7 +2824,7 @@
         <v>13</v>
       </c>
       <c r="AJ13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
@@ -2848,16 +2848,16 @@
         <v>51</v>
       </c>
       <c r="AR13" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS13" t="n">
         <v>201</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV13" t="n">
         <v>51</v>
@@ -2869,7 +2869,7 @@
         <v>17</v>
       </c>
       <c r="AY13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ13" t="n">
         <v>51</v>
@@ -2919,40 +2919,40 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
         <v>3.4</v>
       </c>
       <c r="J14" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="K14" t="n">
         <v>2.12</v>
       </c>
       <c r="L14" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>3.08</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R14" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S14" t="n">
         <v>1.37</v>
@@ -2961,13 +2961,13 @@
         <v>2.5</v>
       </c>
       <c r="U14" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V14" t="n">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="W14" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="X14" t="n">
         <v>7.5</v>
@@ -2976,34 +2976,34 @@
         <v>7.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA14" t="n">
         <v>13</v>
       </c>
       <c r="AB14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AE14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG14" t="n">
         <v>400</v>
       </c>
       <c r="AH14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ14" t="n">
         <v>10</v>
@@ -3015,16 +3015,16 @@
         <v>25</v>
       </c>
       <c r="AM14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AN14" t="n">
         <v>3.75</v>
       </c>
       <c r="AO14" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AP14" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AQ14" t="n">
         <v>35</v>
@@ -3036,7 +3036,7 @@
         <v>250</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU14" t="n">
         <v>7.4</v>
@@ -3045,13 +3045,13 @@
         <v>70</v>
       </c>
       <c r="AW14" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AX14" t="n">
         <v>19</v>
       </c>
       <c r="AY14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ14" t="n">
         <v>100</v>
@@ -3097,58 +3097,58 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="H15" t="n">
         <v>3.75</v>
       </c>
       <c r="I15" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="J15" t="n">
-        <v>4.85</v>
+        <v>4.75</v>
       </c>
       <c r="K15" t="n">
         <v>2.15</v>
       </c>
       <c r="L15" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R15" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S15" t="n">
         <v>1.37</v>
       </c>
       <c r="T15" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="U15" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="V15" t="n">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="W15" t="n">
         <v>10.5</v>
       </c>
       <c r="X15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y15" t="n">
         <v>12.5</v>
@@ -3160,7 +3160,7 @@
         <v>35</v>
       </c>
       <c r="AB15" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC15" t="n">
         <v>10.5</v>
@@ -3169,7 +3169,7 @@
         <v>6.4</v>
       </c>
       <c r="AE15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF15" t="n">
         <v>60</v>
@@ -3178,16 +3178,16 @@
         <v>400</v>
       </c>
       <c r="AH15" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AI15" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AJ15" t="n">
         <v>7</v>
       </c>
       <c r="AK15" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AL15" t="n">
         <v>10.75</v>
@@ -3196,16 +3196,16 @@
         <v>21</v>
       </c>
       <c r="AN15" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AO15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP15" t="n">
         <v>35</v>
       </c>
       <c r="AQ15" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AR15" t="n">
         <v>200</v>
@@ -3214,7 +3214,7 @@
         <v>500</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="AU15" t="n">
         <v>7.9</v>
@@ -3226,13 +3226,13 @@
         <v>3.4</v>
       </c>
       <c r="AX15" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AY15" t="n">
         <v>18.5</v>
       </c>
       <c r="AZ15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA15" t="n">
         <v>60</v>
@@ -3275,34 +3275,34 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I16" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="J16" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K16" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L16" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>8.199999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="P16" t="n">
-        <v>2.85</v>
+        <v>2.78</v>
       </c>
       <c r="Q16" t="n">
         <v>1.98</v>
@@ -3317,37 +3317,37 @@
         <v>2.3</v>
       </c>
       <c r="U16" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="V16" t="n">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="W16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X16" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z16" t="n">
         <v>23</v>
       </c>
       <c r="AA16" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD16" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AE16" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AF16" t="n">
         <v>45</v>
@@ -3356,67 +3356,67 @@
         <v>300</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="AI16" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AJ16" t="n">
         <v>8.25</v>
       </c>
       <c r="AK16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL16" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AM16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="AO16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP16" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AR16" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AS16" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT16" t="n">
         <v>2.5</v>
       </c>
       <c r="AU16" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AV16" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="AX16" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BA16" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="BB16" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC16" t="inlineStr"/>
       <c r="BD16" t="inlineStr"/>
@@ -3474,13 +3474,13 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="O17" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="Q17" t="n">
         <v>1.6</v>
@@ -3492,7 +3492,7 @@
         <v>1.25</v>
       </c>
       <c r="T17" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="U17" t="n">
         <v>1.8</v>
@@ -3631,40 +3631,40 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.7</v>
+        <v>1.44</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>4.3</v>
+        <v>6.1</v>
       </c>
       <c r="J18" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K18" t="n">
         <v>2.27</v>
       </c>
-      <c r="K18" t="n">
-        <v>2.12</v>
-      </c>
       <c r="L18" t="n">
-        <v>4.6</v>
+        <v>5.8</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>11.9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="P18" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.82</v>
+        <v>1.62</v>
       </c>
       <c r="R18" t="n">
-        <v>1.78</v>
+        <v>2.02</v>
       </c>
       <c r="S18" t="n">
         <v>1.37</v>
@@ -3673,37 +3673,37 @@
         <v>2.5</v>
       </c>
       <c r="U18" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="V18" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="W18" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="X18" t="n">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="Y18" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD18" t="n">
         <v>7</v>
       </c>
-      <c r="Z18" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6.1</v>
-      </c>
       <c r="AE18" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF18" t="n">
         <v>55</v>
@@ -3712,67 +3712,67 @@
         <v>350</v>
       </c>
       <c r="AH18" t="n">
-        <v>10.25</v>
+        <v>14.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AJ18" t="n">
-        <v>11.75</v>
+        <v>15.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="AL18" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AM18" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AX18" t="n">
         <v>35</v>
       </c>
-      <c r="AN18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS18" t="n">
+      <c r="AY18" t="n">
+        <v>35</v>
+      </c>
+      <c r="AZ18" t="n">
         <v>250</v>
       </c>
-      <c r="AT18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>30</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>150</v>
-      </c>
       <c r="BA18" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="BB18" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BC18" t="inlineStr"/>
       <c r="BD18" t="inlineStr"/>
@@ -4005,22 +4005,22 @@
         <v>3.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O20" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R20" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S20" t="n">
         <v>1.33</v>
@@ -4134,7 +4134,7 @@
         <v>451</v>
       </c>
       <c r="BD20" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21">
@@ -4199,10 +4199,10 @@
         <v>3.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R21" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S21" t="n">
         <v>1.36</v>
@@ -4533,22 +4533,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="J23" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K23" t="n">
         <v>2.05</v>
       </c>
       <c r="L23" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
         <v>1.07</v>
@@ -4557,16 +4557,16 @@
         <v>9</v>
       </c>
       <c r="O23" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R23" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S23" t="n">
         <v>1.5</v>
@@ -4581,19 +4581,19 @@
         <v>1.73</v>
       </c>
       <c r="W23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y23" t="n">
         <v>9</v>
       </c>
       <c r="Z23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA23" t="n">
         <v>17</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>19</v>
       </c>
       <c r="AB23" t="n">
         <v>34</v>
@@ -4605,46 +4605,46 @@
         <v>6.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF23" t="n">
         <v>67</v>
       </c>
       <c r="AG23" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AI23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL23" t="n">
         <v>41</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>34</v>
       </c>
       <c r="AM23" t="n">
         <v>41</v>
       </c>
       <c r="AN23" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP23" t="n">
         <v>23</v>
       </c>
       <c r="AQ23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS23" t="n">
         <v>201</v>
@@ -4653,25 +4653,25 @@
         <v>2.5</v>
       </c>
       <c r="AU23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV23" t="n">
         <v>67</v>
       </c>
       <c r="AW23" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY23" t="n">
         <v>34</v>
       </c>
       <c r="AZ23" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA23" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB23" t="n">
         <v>301</v>
@@ -4711,16 +4711,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="H24" t="n">
         <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K24" t="n">
         <v>1.95</v>
@@ -4729,10 +4729,10 @@
         <v>3.75</v>
       </c>
       <c r="M24" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O24" t="n">
         <v>1.44</v>
@@ -4741,10 +4741,10 @@
         <v>2.63</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R24" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S24" t="n">
         <v>1.53</v>
@@ -4762,7 +4762,7 @@
         <v>6.5</v>
       </c>
       <c r="X24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y24" t="n">
         <v>10</v>
@@ -4771,7 +4771,7 @@
         <v>23</v>
       </c>
       <c r="AA24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB24" t="n">
         <v>41</v>
@@ -4789,13 +4789,13 @@
         <v>67</v>
       </c>
       <c r="AG24" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ24" t="n">
         <v>12</v>
@@ -4837,7 +4837,7 @@
         <v>67</v>
       </c>
       <c r="AW24" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX24" t="n">
         <v>19</v>
@@ -4904,13 +4904,13 @@
         <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M25" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O25" t="n">
         <v>1.4</v>
@@ -4919,16 +4919,16 @@
         <v>2.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R25" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S25" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T25" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U25" t="n">
         <v>1.91</v>
@@ -4937,7 +4937,7 @@
         <v>1.8</v>
       </c>
       <c r="W25" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X25" t="n">
         <v>15</v>
@@ -4955,7 +4955,7 @@
         <v>41</v>
       </c>
       <c r="AC25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD25" t="n">
         <v>6</v>
@@ -4991,7 +4991,7 @@
         <v>4.75</v>
       </c>
       <c r="AO25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP25" t="n">
         <v>29</v>
@@ -5000,13 +5000,13 @@
         <v>51</v>
       </c>
       <c r="AR25" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS25" t="n">
         <v>251</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU25" t="n">
         <v>8.5</v>
@@ -5021,7 +5021,7 @@
         <v>15</v>
       </c>
       <c r="AY25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ25" t="n">
         <v>51</v>
@@ -5030,7 +5030,7 @@
         <v>81</v>
       </c>
       <c r="BB25" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC25" t="n">
         <v>51</v>
@@ -5071,22 +5071,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H26" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I26" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="J26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="K26" t="n">
         <v>2.2</v>
       </c>
       <c r="L26" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
@@ -5101,10 +5101,10 @@
         <v>3</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R26" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S26" t="n">
         <v>1.44</v>
@@ -5113,16 +5113,16 @@
         <v>2.63</v>
       </c>
       <c r="U26" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V26" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W26" t="n">
         <v>13</v>
       </c>
       <c r="X26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y26" t="n">
         <v>23</v>
@@ -5137,16 +5137,16 @@
         <v>67</v>
       </c>
       <c r="AC26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD26" t="n">
         <v>9</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>9.5</v>
       </c>
       <c r="AE26" t="n">
         <v>29</v>
       </c>
       <c r="AF26" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG26" t="n">
         <v>101</v>
@@ -5170,7 +5170,7 @@
         <v>41</v>
       </c>
       <c r="AN26" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO26" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -737,148 +737,148 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="I2" t="n">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="J2" t="n">
-        <v>2.32</v>
+        <v>2.67</v>
       </c>
       <c r="K2" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>3.22</v>
+        <v>3.08</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="R2" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S2" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="T2" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="V2" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="X2" t="n">
-        <v>6.8</v>
+        <v>8.25</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>11.25</v>
+        <v>16</v>
       </c>
       <c r="AA2" t="n">
-        <v>11.75</v>
+        <v>14.5</v>
       </c>
       <c r="AB2" t="n">
         <v>22</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AG2" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="AI2" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11.25</v>
+        <v>9.25</v>
       </c>
       <c r="AK2" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AL2" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AM2" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.55</v>
+        <v>4.05</v>
       </c>
       <c r="AO2" t="n">
-        <v>8.75</v>
+        <v>10.75</v>
       </c>
       <c r="AP2" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AR2" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AS2" t="n">
         <v>250</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV2" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="AX2" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AZ2" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="BA2" t="n">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="BB2" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3">

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -737,37 +737,37 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>2.27</v>
       </c>
       <c r="H2" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="J2" t="n">
-        <v>2.67</v>
+        <v>2.85</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>3.08</v>
+        <v>3.04</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R2" t="n">
         <v>1.7</v>
@@ -785,31 +785,31 @@
         <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="X2" t="n">
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AE2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
         <v>45</v>
@@ -818,34 +818,34 @@
         <v>300</v>
       </c>
       <c r="AH2" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="AI2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AK2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.05</v>
+        <v>4.25</v>
       </c>
       <c r="AO2" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AR2" t="n">
         <v>75</v>
@@ -854,31 +854,31 @@
         <v>250</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AV2" t="n">
         <v>55</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY2" t="n">
         <v>22</v>
       </c>
       <c r="AZ2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BA2" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB2" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3">
@@ -955,10 +955,10 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="V3" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="W3" t="n">
         <v>10.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.27</v>
+        <v>2.02</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I2" t="n">
-        <v>2.95</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.85</v>
+        <v>2.55</v>
       </c>
       <c r="K2" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L2" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -761,13 +761,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>3.04</v>
+        <v>3.08</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R2" t="n">
         <v>1.7</v>
@@ -779,106 +779,106 @@
         <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W2" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="X2" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AF2" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG2" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB2" t="n">
         <v>300</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>16</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>75</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>100</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>200</v>
       </c>
     </row>
     <row r="3">
@@ -913,22 +913,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.45</v>
+        <v>4.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I3" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="J3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K3" t="n">
         <v>2.15</v>
       </c>
       <c r="L3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
@@ -943,112 +943,112 @@
         <v>3.35</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R3" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S3" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="U3" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="V3" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="W3" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="X3" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="Z3" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB3" t="n">
         <v>35</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>37</v>
       </c>
       <c r="AC3" t="n">
         <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AE3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG3" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AH3" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AI3" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AJ3" t="n">
         <v>7</v>
       </c>
       <c r="AK3" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AM3" t="n">
         <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AO3" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AP3" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AQ3" t="n">
         <v>150</v>
       </c>
       <c r="AR3" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AS3" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AV3" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AY3" t="n">
         <v>18.5</v>
       </c>
       <c r="AZ3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA3" t="n">
         <v>60</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -737,40 +737,40 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="H2" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="J2" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="K2" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>3.9</v>
+        <v>4.15</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>8.800000000000001</v>
+        <v>11.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>3.08</v>
+        <v>3.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S2" t="n">
         <v>1.37</v>
@@ -782,31 +782,31 @@
         <v>1.79</v>
       </c>
       <c r="V2" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="W2" t="n">
         <v>6.2</v>
       </c>
       <c r="X2" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.75</v>
+        <v>10.25</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="AE2" t="n">
         <v>11.75</v>
@@ -818,67 +818,67 @@
         <v>350</v>
       </c>
       <c r="AH2" t="n">
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="AI2" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM2" t="n">
         <v>30</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AP2" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ2" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AR2" t="n">
         <v>65</v>
       </c>
       <c r="AS2" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT2" t="n">
         <v>2.52</v>
       </c>
       <c r="AU2" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AV2" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="AX2" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AZ2" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BA2" t="n">
         <v>150</v>
       </c>
       <c r="BB2" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3">
@@ -913,40 +913,40 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.1</v>
+        <v>4.25</v>
       </c>
       <c r="H3" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="J3" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="K3" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L3" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>10.4</v>
+        <v>12.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>3.35</v>
+        <v>3.61</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R3" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>
@@ -955,16 +955,16 @@
         <v>2.52</v>
       </c>
       <c r="U3" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="V3" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="X3" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y3" t="n">
         <v>11.75</v>
@@ -973,13 +973,13 @@
         <v>50</v>
       </c>
       <c r="AA3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB3" t="n">
         <v>35</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AD3" t="n">
         <v>6.3</v>
@@ -991,13 +991,13 @@
         <v>55</v>
       </c>
       <c r="AG3" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AH3" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AI3" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AJ3" t="n">
         <v>7</v>
@@ -1006,19 +1006,19 @@
         <v>10.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AM3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AO3" t="n">
         <v>24</v>
       </c>
       <c r="AP3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AQ3" t="n">
         <v>150</v>
@@ -1027,16 +1027,16 @@
         <v>175</v>
       </c>
       <c r="AS3" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AV3" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW3" t="n">
         <v>3.5</v>
@@ -1045,10 +1045,10 @@
         <v>8.25</v>
       </c>
       <c r="AY3" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AZ3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA3" t="n">
         <v>60</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -755,16 +755,16 @@
         <v>4.15</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="P2" t="n">
-        <v>3.33</v>
+        <v>3.47</v>
       </c>
       <c r="Q2" t="n">
         <v>1.8</v>
@@ -779,10 +779,10 @@
         <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="V2" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="W2" t="n">
         <v>6.2</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB3"/>
+  <dimension ref="A1:BB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -708,7 +708,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t6QxX6zL</t>
+          <t>0vJhfpLl</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -718,343 +718,167 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Dinamo Tbilisi</t>
+          <t>Fenix</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dinamo Batumi</t>
+          <t>Maldonado</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>4.15</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>11.8</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>3.47</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
         <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
         <v>7.5</v>
       </c>
       <c r="Y2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD2" t="n">
         <v>7</v>
       </c>
-      <c r="Z2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>5.8</v>
-      </c>
       <c r="AE2" t="n">
-        <v>11.75</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AM2" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AR2" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AS2" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.6</v>
+        <v>6.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AY2" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>KjxUYS58</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>27/11/2024</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Samtredia</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Dila Gori</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N3" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="W3" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="X3" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>150</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>175</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>27</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>60</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>250</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB2"/>
+  <dimension ref="A1:BB4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -708,176 +708,528 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>f9UtWQkR</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Telavi</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Samgurali</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="W2" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="X2" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>70</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>niBRS6GM</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>INDIA - ISL</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Mohammedan</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Bengaluru FC</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N3" t="n">
+        <v>11</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2</v>
+      </c>
+      <c r="W3" t="n">
+        <v>11</v>
+      </c>
+      <c r="X3" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>0vJhfpLl</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>27/11/2024</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>09:45</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Fenix</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Maldonado</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="G4" t="n">
         <v>1.73</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H4" t="n">
         <v>3.5</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I4" t="n">
         <v>5</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J4" t="n">
         <v>2.4</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K4" t="n">
         <v>2.05</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L4" t="n">
         <v>5.5</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M4" t="n">
         <v>1.07</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N4" t="n">
         <v>9</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O4" t="n">
         <v>1.36</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P4" t="n">
         <v>3</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q4" t="n">
         <v>2.2</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R4" t="n">
         <v>1.65</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S4" t="n">
         <v>1.5</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T4" t="n">
         <v>2.5</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U4" t="n">
         <v>2.1</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V4" t="n">
         <v>1.67</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W4" t="n">
         <v>6</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X4" t="n">
         <v>7.5</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y4" t="n">
         <v>9</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z4" t="n">
         <v>13</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA4" t="n">
         <v>17</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB4" t="n">
         <v>34</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC4" t="n">
         <v>8</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD4" t="n">
         <v>7</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE4" t="n">
         <v>19</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF4" t="n">
         <v>67</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG4" t="n">
         <v>1000</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH4" t="n">
         <v>11</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI4" t="n">
         <v>23</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ4" t="n">
         <v>17</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK4" t="n">
         <v>51</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL4" t="n">
         <v>41</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM4" t="n">
         <v>51</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN4" t="n">
         <v>3.6</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO4" t="n">
         <v>9.5</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP4" t="n">
         <v>23</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ4" t="n">
         <v>34</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR4" t="n">
         <v>51</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS4" t="n">
         <v>201</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT4" t="n">
         <v>2.5</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU4" t="n">
         <v>9</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV4" t="n">
         <v>67</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW4" t="n">
         <v>6.5</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX4" t="n">
         <v>29</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY4" t="n">
         <v>41</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ4" t="n">
         <v>101</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA4" t="n">
         <v>151</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB4" t="n">
         <v>351</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -913,22 +913,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
         <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -943,10 +943,10 @@
         <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R3" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -964,10 +964,10 @@
         <v>11</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z3" t="n">
         <v>41</v>
@@ -994,19 +994,19 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ3" t="n">
         <v>9</v>
       </c>
       <c r="AK3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL3" t="n">
         <v>17</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>15</v>
       </c>
       <c r="AM3" t="n">
         <v>26</v>
@@ -1015,10 +1015,10 @@
         <v>5.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
         <v>67</v>
@@ -1042,13 +1042,13 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY3" t="n">
         <v>21</v>
       </c>
       <c r="AZ3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA3" t="n">
         <v>51</v>
@@ -1089,19 +1089,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
         <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
         <v>5.5</v>
@@ -1140,7 +1140,7 @@
         <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
@@ -1149,7 +1149,7 @@
         <v>13</v>
       </c>
       <c r="AA4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB4" t="n">
         <v>34</v>
@@ -1161,7 +1161,7 @@
         <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
@@ -1188,10 +1188,10 @@
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -913,22 +913,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -943,10 +943,10 @@
         <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R3" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -961,25 +961,25 @@
         <v>2</v>
       </c>
       <c r="W3" t="n">
+        <v>10</v>
+      </c>
+      <c r="X3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y3" t="n">
         <v>11</v>
       </c>
-      <c r="X3" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>12</v>
-      </c>
       <c r="Z3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
@@ -988,7 +988,7 @@
         <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG3" t="n">
         <v>201</v>
@@ -997,37 +997,37 @@
         <v>8</v>
       </c>
       <c r="AI3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL3" t="n">
         <v>19</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AM3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO3" t="n">
         <v>17</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>19</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
         <v>81</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT3" t="n">
         <v>2.75</v>
@@ -1039,13 +1039,13 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ3" t="n">
         <v>41</v>
@@ -1089,13 +1089,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H4" t="n">
         <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J4" t="n">
         <v>2.38</v>
@@ -1119,16 +1119,16 @@
         <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R4" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U4" t="n">
         <v>2.1</v>
@@ -1146,7 +1146,7 @@
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA4" t="n">
         <v>15</v>
@@ -1173,7 +1173,7 @@
         <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
         <v>17</v>
@@ -1197,7 +1197,7 @@
         <v>23</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
@@ -1206,7 +1206,7 @@
         <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU4" t="n">
         <v>9</v>
@@ -1224,7 +1224,7 @@
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA4" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -1119,10 +1119,10 @@
         <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -737,73 +737,73 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="I2" t="n">
         <v>2.7</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K2" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="L2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>6.45</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R2" t="n">
         <v>1.72</v>
       </c>
       <c r="S2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="U2" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="V2" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="W2" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="X2" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Z2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB2" t="n">
         <v>23</v>
       </c>
-      <c r="AA2" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>21</v>
-      </c>
       <c r="AC2" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD2" t="n">
         <v>5.1</v>
@@ -818,10 +818,10 @@
         <v>250</v>
       </c>
       <c r="AH2" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AI2" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AJ2" t="n">
         <v>8.25</v>
@@ -830,55 +830,55 @@
         <v>26</v>
       </c>
       <c r="AL2" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AM2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="AO2" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AQ2" t="n">
+        <v>65</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV2" t="n">
         <v>55</v>
       </c>
-      <c r="AR2" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>50</v>
-      </c>
       <c r="AW2" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="AX2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BA2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BB2" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3">
@@ -913,28 +913,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="H3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J3" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.6</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
         <v>1.29</v>
@@ -961,22 +961,22 @@
         <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y3" t="n">
         <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
         <v>10</v>
@@ -985,7 +985,7 @@
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
         <v>41</v>
@@ -994,37 +994,37 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL3" t="n">
         <v>21</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>19</v>
       </c>
       <c r="AM3" t="n">
         <v>29</v>
       </c>
       <c r="AN3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
         <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
         <v>151</v>
@@ -1039,7 +1039,7 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX3" t="n">
         <v>13</v>
@@ -1051,7 +1051,7 @@
         <v>41</v>
       </c>
       <c r="BA3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB3" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB4"/>
+  <dimension ref="A1:BB3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -913,22 +913,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -964,7 +964,7 @@
         <v>9.5</v>
       </c>
       <c r="X3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
         <v>11</v>
@@ -973,10 +973,10 @@
         <v>29</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
         <v>10</v>
@@ -997,28 +997,28 @@
         <v>8.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM3" t="n">
         <v>29</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
         <v>51</v>
@@ -1039,7 +1039,7 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX3" t="n">
         <v>13</v>
@@ -1055,182 +1055,6 @@
       </c>
       <c r="BB3" t="n">
         <v>151</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>0vJhfpLl</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>27/11/2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>09:45</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Fenix</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Maldonado</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W4" t="n">
-        <v>6</v>
-      </c>
-      <c r="X4" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>351</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J3" t="n">
         <v>3.6</v>
@@ -928,13 +928,13 @@
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
         <v>1.29</v>
@@ -943,10 +943,10 @@
         <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R3" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -961,7 +961,7 @@
         <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X3" t="n">
         <v>15</v>
@@ -970,7 +970,7 @@
         <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="n">
         <v>23</v>
@@ -994,7 +994,7 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI3" t="n">
         <v>11</v>
@@ -1009,7 +1009,7 @@
         <v>19</v>
       </c>
       <c r="AM3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN3" t="n">
         <v>5</v>
@@ -1024,7 +1024,7 @@
         <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS3" t="n">
         <v>151</v>
@@ -1042,16 +1042,16 @@
         <v>4.33</v>
       </c>
       <c r="AX3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ3" t="n">
         <v>41</v>
       </c>
       <c r="BA3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB3" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -737,34 +737,34 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="H2" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
         <v>2.7</v>
       </c>
       <c r="J2" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>6.58</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>2.94</v>
+        <v>2.97</v>
       </c>
       <c r="Q2" t="n">
         <v>1.88</v>
@@ -773,43 +773,43 @@
         <v>1.72</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T2" t="n">
         <v>2.42</v>
       </c>
       <c r="U2" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="V2" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="W2" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="X2" t="n">
         <v>10.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="Z2" t="n">
         <v>22</v>
       </c>
       <c r="AA2" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AE2" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF2" t="n">
         <v>40</v>
@@ -818,64 +818,64 @@
         <v>250</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AJ2" t="n">
         <v>8.25</v>
       </c>
       <c r="AK2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL2" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AM2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AR2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS2" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT2" t="n">
         <v>2.42</v>
       </c>
       <c r="AU2" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW2" t="n">
         <v>4.65</v>
       </c>
       <c r="AX2" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AY2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AZ2" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BA2" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB2" t="n">
         <v>250</v>
@@ -913,22 +913,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J3" t="n">
         <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -943,10 +943,10 @@
         <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R3" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -970,16 +970,16 @@
         <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
         <v>23</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
@@ -994,7 +994,7 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI3" t="n">
         <v>11</v>
@@ -1018,13 +1018,13 @@
         <v>17</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
         <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
         <v>151</v>
@@ -1042,7 +1042,7 @@
         <v>4.33</v>
       </c>
       <c r="AX3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY3" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB3"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,11 +704,21 @@
           <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_4-4_HT</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>f9UtWQkR</t>
+          <t>tfICbHRE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -718,344 +728,886 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Telavi</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Samgurali</t>
+          <t>Slovacko</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U2" t="n">
         <v>2</v>
       </c>
-      <c r="L2" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N2" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.72</v>
-      </c>
       <c r="V2" t="n">
-        <v>2.07</v>
+        <v>1.75</v>
       </c>
       <c r="W2" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.9</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>250</v>
+        <v>401</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI2" t="n">
-        <v>11.75</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
-        <v>8.25</v>
+        <v>12</v>
       </c>
       <c r="AK2" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.4</v>
+        <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="AU2" t="n">
-        <v>6.7</v>
+        <v>8.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.65</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="BA2" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>250</v>
+        <v>251</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>f9UtWQkR</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Telavi</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Samgurali</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="W3" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="X3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>70</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ClH8Rpbr</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Iberia 1999</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Kolkheti 1913</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N4" t="n">
+        <v>16</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>4</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>400</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>300</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>bsyYXnLE</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Torpedo Kutaisi</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Gagra</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N5" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="W5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="X5" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>37</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>35</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>250</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>niBRS6GM</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>27/11/2024</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>INDIA - ISL</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Mohammedan</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Bengaluru FC</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="G6" t="n">
         <v>2.9</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H6" t="n">
         <v>3.4</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I6" t="n">
         <v>2.3</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J6" t="n">
         <v>3.6</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K6" t="n">
         <v>2.2</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L6" t="n">
         <v>3</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M6" t="n">
         <v>1.05</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N6" t="n">
         <v>11</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S3" t="n">
+      <c r="O6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S6" t="n">
         <v>1.4</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T6" t="n">
         <v>2.75</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U6" t="n">
         <v>1.73</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V6" t="n">
         <v>2</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W6" t="n">
         <v>10</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X6" t="n">
         <v>15</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y6" t="n">
         <v>11</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z6" t="n">
         <v>29</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA6" t="n">
         <v>23</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB6" t="n">
         <v>29</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC6" t="n">
         <v>11</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD6" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE6" t="n">
         <v>13</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF6" t="n">
         <v>41</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG6" t="n">
         <v>201</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH6" t="n">
         <v>8.5</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI6" t="n">
         <v>11</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ6" t="n">
         <v>9.5</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK6" t="n">
         <v>21</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL6" t="n">
         <v>19</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM6" t="n">
         <v>26</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN6" t="n">
         <v>5</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO6" t="n">
         <v>17</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP6" t="n">
         <v>23</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ6" t="n">
         <v>51</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR6" t="n">
         <v>67</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS6" t="n">
         <v>151</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT6" t="n">
         <v>2.75</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU6" t="n">
         <v>8</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV6" t="n">
         <v>51</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW6" t="n">
         <v>4.33</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AX6" t="n">
         <v>13</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AY6" t="n">
         <v>21</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="AZ6" t="n">
         <v>41</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BA6" t="n">
         <v>51</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BB6" t="n">
         <v>151</v>
       </c>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1431,184 +1431,6 @@
       <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="inlineStr"/>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>niBRS6GM</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>27/11/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>INDIA - ISL</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Mohammedan</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Bengaluru FC</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2</v>
-      </c>
-      <c r="W6" t="n">
-        <v>10</v>
-      </c>
-      <c r="X6" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC6" t="inlineStr"/>
-      <c r="BD6" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -1110,31 +1110,31 @@
         <v>1.23</v>
       </c>
       <c r="H4" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I4" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="J4" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="K4" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="L4" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P4" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q4" t="n">
         <v>1.6</v>
@@ -1143,28 +1143,28 @@
         <v>2.07</v>
       </c>
       <c r="S4" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="T4" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="U4" t="n">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="V4" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="W4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X4" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AA4" t="n">
         <v>8.5</v>
@@ -1173,10 +1173,10 @@
         <v>18</v>
       </c>
       <c r="AC4" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AE4" t="n">
         <v>17</v>
@@ -1188,67 +1188,67 @@
         <v>300</v>
       </c>
       <c r="AH4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI4" t="n">
         <v>60</v>
       </c>
       <c r="AJ4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AL4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AO4" t="n">
         <v>5.2</v>
       </c>
       <c r="AP4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AR4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS4" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="AU4" t="n">
         <v>8.25</v>
       </c>
       <c r="AV4" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AW4" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AX4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AY4" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AZ4" t="n">
+        <v>300</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB4" t="n">
         <v>400</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>300</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>500</v>
       </c>
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
@@ -1285,22 +1285,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="H5" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="J5" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="K5" t="n">
         <v>2.27</v>
       </c>
       <c r="L5" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1318,7 +1318,7 @@
         <v>1.62</v>
       </c>
       <c r="R5" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S5" t="n">
         <v>1.37</v>
@@ -1336,10 +1336,10 @@
         <v>6.2</v>
       </c>
       <c r="X5" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="Z5" t="n">
         <v>8</v>
@@ -1348,7 +1348,7 @@
         <v>9.25</v>
       </c>
       <c r="AB5" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC5" t="n">
         <v>12</v>
@@ -1357,28 +1357,28 @@
         <v>7.1</v>
       </c>
       <c r="AE5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG5" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH5" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AK5" t="n">
         <v>120</v>
       </c>
       <c r="AL5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM5" t="n">
         <v>45</v>
@@ -1387,40 +1387,40 @@
         <v>3.25</v>
       </c>
       <c r="AO5" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AP5" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AR5" t="n">
         <v>45</v>
       </c>
       <c r="AS5" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT5" t="n">
         <v>2.75</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV5" t="n">
         <v>65</v>
       </c>
       <c r="AW5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AY5" t="n">
         <v>37</v>
       </c>
-      <c r="AY5" t="n">
-        <v>35</v>
-      </c>
       <c r="AZ5" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BA5" t="n">
         <v>250</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -1107,22 +1107,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="H4" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I4" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="J4" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="K4" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="L4" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -1149,10 +1149,10 @@
         <v>4.3</v>
       </c>
       <c r="U4" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="V4" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
         <v>9</v>
@@ -1161,52 +1161,52 @@
         <v>6.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z4" t="n">
         <v>7.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB4" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD4" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG4" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AH4" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK4" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AL4" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="n">
         <v>55</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AO4" t="n">
         <v>5.2</v>
@@ -1215,7 +1215,7 @@
         <v>12.5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AR4" t="n">
         <v>28</v>
@@ -1224,28 +1224,28 @@
         <v>120</v>
       </c>
       <c r="AT4" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AV4" t="n">
         <v>55</v>
       </c>
       <c r="AW4" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AX4" t="n">
         <v>50</v>
       </c>
       <c r="AY4" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AZ4" t="n">
+        <v>350</v>
+      </c>
+      <c r="BA4" t="n">
         <v>300</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>250</v>
       </c>
       <c r="BB4" t="n">
         <v>400</v>
@@ -1312,7 +1312,7 @@
         <v>1.14</v>
       </c>
       <c r="P5" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="Q5" t="n">
         <v>1.62</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -1327,10 +1327,10 @@
         <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V5" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="W5" t="n">
         <v>6.2</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="K2" t="n">
         <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -789,22 +789,22 @@
         <v>2.38</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V2" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
         <v>21</v>
@@ -822,40 +822,40 @@
         <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AH2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL2" t="n">
         <v>34</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>29</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
         <v>26</v>
       </c>
       <c r="AQ2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR2" t="n">
         <v>81</v>
@@ -867,28 +867,28 @@
         <v>2.38</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
         <v>81</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>f9UtWQkR</t>
+          <t>ClH8Rpbr</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,157 +920,157 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Telavi</t>
+          <t>Iberia 1999</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Samgurali</t>
+          <t>Kolkheti 1913</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.47</v>
+        <v>1.22</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>5.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7</v>
+        <v>9.25</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>2.72</v>
       </c>
       <c r="L3" t="n">
-        <v>3.3</v>
+        <v>7.4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>6.58</v>
+        <v>17.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.28</v>
+        <v>1.08</v>
       </c>
       <c r="P3" t="n">
-        <v>2.97</v>
+        <v>6.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.88</v>
+        <v>1.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.72</v>
+        <v>2.07</v>
       </c>
       <c r="S3" t="n">
-        <v>1.39</v>
+        <v>1.18</v>
       </c>
       <c r="T3" t="n">
-        <v>2.42</v>
+        <v>4.3</v>
       </c>
       <c r="U3" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V3" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="W3" t="n">
-        <v>7.1</v>
+        <v>9</v>
       </c>
       <c r="X3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD3" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y3" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA3" t="n">
+      <c r="AE3" t="n">
         <v>16.5</v>
       </c>
-      <c r="AB3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AF3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG3" t="n">
         <v>250</v>
       </c>
       <c r="AH3" t="n">
-        <v>7.5</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>11.75</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>60</v>
-      </c>
       <c r="AR3" t="n">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="AS3" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.42</v>
+        <v>3.95</v>
       </c>
       <c r="AU3" t="n">
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.65</v>
+        <v>10.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="AY3" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AZ3" t="n">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="BA3" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="BB3" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ClH8Rpbr</t>
+          <t>bsyYXnLE</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1098,338 +1098,160 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Iberia 1999</t>
+          <t>Torpedo Kutaisi</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kolkheti 1913</t>
+          <t>Gagra</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="H4" t="n">
-        <v>5.4</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>9.25</v>
+        <v>6.9</v>
       </c>
       <c r="J4" t="n">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="K4" t="n">
-        <v>2.72</v>
+        <v>2.18</v>
       </c>
       <c r="L4" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="P4" t="n">
-        <v>6.5</v>
+        <v>4.05</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R4" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.18</v>
+        <v>1.37</v>
       </c>
       <c r="T4" t="n">
-        <v>4.3</v>
+        <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W4" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="X4" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Z4" t="n">
         <v>9</v>
       </c>
-      <c r="X4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AA4" t="n">
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="AB4" t="n">
         <v>17.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>10.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF4" t="n">
         <v>50</v>
       </c>
       <c r="AG4" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AI4" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AJ4" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AK4" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="AL4" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AM4" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AO4" t="n">
-        <v>5.2</v>
+        <v>6.8</v>
       </c>
       <c r="AP4" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>11.75</v>
+        <v>20</v>
       </c>
       <c r="AR4" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="AS4" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.95</v>
+        <v>2.67</v>
       </c>
       <c r="AU4" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AV4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW4" t="n">
-        <v>10.5</v>
+        <v>8.25</v>
       </c>
       <c r="AX4" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AY4" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AZ4" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BA4" t="n">
         <v>300</v>
       </c>
       <c r="BB4" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>bsyYXnLE</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>27/11/2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Torpedo Kutaisi</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Gagra</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="L5" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N5" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="W5" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="X5" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>37</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>300</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>250</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>450</v>
-      </c>
-      <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -765,10 +765,10 @@
         <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -1107,28 +1107,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="K4" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="L4" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.15</v>
@@ -1149,22 +1149,22 @@
         <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="V4" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="W4" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="X4" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Z4" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AA4" t="n">
         <v>9.25</v>
@@ -1173,13 +1173,13 @@
         <v>17.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AE4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
         <v>50</v>
@@ -1188,31 +1188,31 @@
         <v>300</v>
       </c>
       <c r="AH4" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AL4" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM4" t="n">
         <v>45</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AP4" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AQ4" t="n">
         <v>20</v>
@@ -1227,28 +1227,28 @@
         <v>2.67</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AV4" t="n">
         <v>60</v>
       </c>
       <c r="AW4" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AX4" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AY4" t="n">
         <v>37</v>
       </c>
       <c r="AZ4" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BA4" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BB4" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,10 +765,10 @@
         <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -935,16 +935,16 @@
         <v>5.4</v>
       </c>
       <c r="I3" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="K3" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="L3" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
@@ -956,7 +956,7 @@
         <v>1.08</v>
       </c>
       <c r="P3" t="n">
-        <v>6.5</v>
+        <v>7.8</v>
       </c>
       <c r="Q3" t="n">
         <v>1.6</v>
@@ -965,34 +965,34 @@
         <v>2.07</v>
       </c>
       <c r="S3" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="T3" t="n">
-        <v>4.3</v>
+        <v>4.24</v>
       </c>
       <c r="U3" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="V3" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="W3" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="X3" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="Y3" t="n">
         <v>7.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC3" t="n">
         <v>20</v>
@@ -1004,7 +1004,7 @@
         <v>16.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG3" t="n">
         <v>250</v>
@@ -1013,10 +1013,10 @@
         <v>29</v>
       </c>
       <c r="AI3" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK3" t="n">
         <v>200</v>
@@ -1037,16 +1037,16 @@
         <v>12.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AR3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS3" t="n">
         <v>120</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AU3" t="n">
         <v>8</v>
@@ -1055,7 +1055,7 @@
         <v>55</v>
       </c>
       <c r="AW3" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AX3" t="n">
         <v>50</v>
@@ -1067,7 +1067,7 @@
         <v>350</v>
       </c>
       <c r="BA3" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BB3" t="n">
         <v>400</v>
@@ -1110,16 +1110,16 @@
         <v>1.47</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="J4" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="K4" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L4" t="n">
         <v>5.9</v>
@@ -1131,10 +1131,10 @@
         <v>11.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>4.05</v>
+        <v>4.29</v>
       </c>
       <c r="Q4" t="n">
         <v>1.65</v>
@@ -1149,19 +1149,19 @@
         <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="V4" t="n">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="W4" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X4" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Z4" t="n">
         <v>9.25</v>
@@ -1173,22 +1173,22 @@
         <v>17.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG4" t="n">
         <v>300</v>
       </c>
       <c r="AH4" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI4" t="n">
         <v>32</v>
@@ -1197,7 +1197,7 @@
         <v>15.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AL4" t="n">
         <v>50</v>
@@ -1209,13 +1209,13 @@
         <v>3.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AP4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR4" t="n">
         <v>45</v>
@@ -1227,13 +1227,13 @@
         <v>2.67</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AV4" t="n">
         <v>60</v>
       </c>
       <c r="AW4" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AX4" t="n">
         <v>37</v>
@@ -1252,6 +1252,370 @@
       </c>
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C66nTKo1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Castellon</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Racing Club Ferrol</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N5" t="n">
+        <v>13</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>KCTDqtWs</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7</v>
+      </c>
+      <c r="X6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -1470,7 +1470,7 @@
         <v>1.75</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
         <v>4.75</v>
@@ -1482,13 +1482,13 @@
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.29</v>
@@ -1497,10 +1497,10 @@
         <v>3.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -1509,22 +1509,22 @@
         <v>2.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W6" t="n">
         <v>7</v>
       </c>
       <c r="X6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA6" t="n">
         <v>15</v>
@@ -1533,10 +1533,10 @@
         <v>26</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE6" t="n">
         <v>15</v>
@@ -1587,7 +1587,7 @@
         <v>2.75</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
@@ -1608,7 +1608,7 @@
         <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC6" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>tfICbHRE</t>
+          <t>C66nTKo1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,167 +728,167 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Slovacko</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="K2" t="n">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.4</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>1.53</v>
+        <v>2.08</v>
       </c>
       <c r="S2" t="n">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="T2" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="V2" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AB2" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>17</v>
       </c>
-      <c r="AF2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>13</v>
-      </c>
       <c r="AK2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL2" t="n">
         <v>41</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>34</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AP2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX2" t="n">
         <v>26</v>
       </c>
-      <c r="AQ2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>21</v>
-      </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ2" t="n">
         <v>81</v>
       </c>
       <c r="BA2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BC2" t="n">
         <v>81</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ClH8Rpbr</t>
+          <t>KCTDqtWs</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,710 +910,172 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Iberia 1999</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kolkheti 1913</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.22</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
-        <v>5.4</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N3" t="n">
+        <v>11</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W3" t="n">
+        <v>7</v>
+      </c>
+      <c r="X3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO3" t="n">
         <v>9.5</v>
       </c>
-      <c r="J3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="AP3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT3" t="n">
         <v>2.75</v>
       </c>
-      <c r="L3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P3" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="T3" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="W3" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="X3" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA3" t="n">
+      <c r="AU3" t="n">
         <v>8.5</v>
       </c>
-      <c r="AB3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>200</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>120</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8</v>
-      </c>
       <c r="AV3" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>10.75</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>350</v>
+        <v>81</v>
       </c>
       <c r="BA3" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="BB3" t="n">
-        <v>400</v>
-      </c>
-      <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>bsyYXnLE</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>27/11/2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Torpedo Kutaisi</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Gagra</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="W4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="X4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>37</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>37</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>250</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>250</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>450</v>
-      </c>
-      <c r="BC4" t="inlineStr"/>
-      <c r="BD4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>C66nTKo1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>27/11/2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Castellon</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Racing Club Ferrol</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N5" t="n">
-        <v>13</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>8</v>
-      </c>
-      <c r="X5" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ5" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC3" t="n">
         <v>81</v>
       </c>
-      <c r="BA5" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>KCTDqtWs</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>27/11/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Levante</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Malaga</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W6" t="n">
-        <v>7</v>
-      </c>
-      <c r="X6" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD6" t="n">
+      <c r="BD3" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K3" t="n">
         <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -980,64 +980,64 @@
         <v>7</v>
       </c>
       <c r="X3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
         <v>15</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD3" t="n">
         <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK3" t="n">
         <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="n">
         <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
       </c>
       <c r="AQ3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR3" t="n">
         <v>51</v>
@@ -1055,19 +1055,19 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
         <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
         <v>251</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1_HT</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2_HT</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2_HT</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3_HT</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3_HT</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C66nTKo1</t>
+          <t>MgX5nwjB</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,177 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>GV San Jose</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Bolivar</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N2" t="n">
+        <v>17</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P2" t="n">
         <v>5.5</v>
       </c>
-      <c r="J2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="Q2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>17</v>
+      </c>
+      <c r="X2" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y2" t="n">
         <v>13</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2</v>
-      </c>
-      <c r="W2" t="n">
+      <c r="Z2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD2" t="n">
         <v>8</v>
       </c>
-      <c r="X2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z2" t="n">
+      <c r="AE2" t="n">
         <v>12</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AF2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL2" t="n">
         <v>13</v>
       </c>
-      <c r="AB2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF2" t="n">
+      <c r="AM2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>51</v>
       </c>
-      <c r="AG2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI2" t="n">
+      <c r="AR2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>301</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA2" t="n">
         <v>29</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL2" t="n">
+      <c r="BB2" t="n">
         <v>41</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>201</v>
       </c>
       <c r="BC2" t="n">
         <v>81</v>
       </c>
-      <c r="BD2" t="n">
-        <v>81</v>
-      </c>
+      <c r="BD2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>KCTDqtWs</t>
+          <t>C66nTKo1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -920,67 +918,67 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>1.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
         <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L3" t="n">
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R3" t="n">
         <v>2</v>
       </c>
-      <c r="R3" t="n">
-        <v>1.85</v>
-      </c>
       <c r="S3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V3" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y3" t="n">
         <v>8.5</v>
@@ -989,34 +987,34 @@
         <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
         <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
         <v>26</v>
       </c>
       <c r="AJ3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK3" t="n">
         <v>51</v>
@@ -1028,54 +1026,236 @@
         <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
       </c>
       <c r="AW3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX3" t="n">
         <v>6.5</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AY3" t="n">
         <v>26</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AZ3" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>KCTDqtWs</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N4" t="n">
+        <v>11</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W4" t="n">
+        <v>7</v>
+      </c>
+      <c r="X4" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>34</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="BA4" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB4" t="n">
         <v>101</v>
       </c>
-      <c r="BA3" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB3" t="n">
+      <c r="BC4" t="n">
         <v>251</v>
       </c>
-      <c r="BC3" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD3" t="n">
+      <c r="BD4" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -927,37 +927,37 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R3" t="n">
         <v>2</v>
@@ -969,31 +969,31 @@
         <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W3" t="n">
+        <v>7</v>
+      </c>
+      <c r="X3" t="n">
         <v>7.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>8.5</v>
       </c>
       <c r="Y3" t="n">
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
         <v>13</v>
       </c>
       <c r="AB3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
         <v>7</v>
@@ -1002,19 +1002,19 @@
         <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH3" t="n">
         <v>15</v>
       </c>
       <c r="AI3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK3" t="n">
         <v>51</v>
@@ -1026,10 +1026,10 @@
         <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP3" t="n">
         <v>19</v>
@@ -1038,16 +1038,16 @@
         <v>26</v>
       </c>
       <c r="AR3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS3" t="n">
         <v>126</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
@@ -1056,22 +1056,22 @@
         <v>81</v>
       </c>
       <c r="AX3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD3" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -939,7 +939,7 @@
         <v>2.2</v>
       </c>
       <c r="K3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L3" t="n">
         <v>5.5</v>
@@ -957,10 +957,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>
@@ -975,7 +975,7 @@
         <v>1.83</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X3" t="n">
         <v>7.5</v>
@@ -996,7 +996,7 @@
         <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -1038,7 +1038,7 @@
         <v>26</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS3" t="n">
         <v>126</v>
@@ -1139,10 +1139,10 @@
         <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1258,6 +1258,184 @@
       <c r="BD4" t="n">
         <v>81</v>
       </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>8A59j2KD</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Racing Montevideo</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -898,7 +898,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C66nTKo1</t>
+          <t>U5u5E51b</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -908,65 +908,65 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>5.75</v>
+        <v>3.9</v>
       </c>
       <c r="J3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.2</v>
       </c>
-      <c r="K3" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>2.03</v>
+        <v>1.73</v>
       </c>
       <c r="S3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U3" t="n">
         <v>1.83</v>
@@ -975,112 +975,112 @@
         <v>1.83</v>
       </c>
       <c r="W3" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y3" t="n">
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
         <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU3" t="n">
         <v>8</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
       </c>
       <c r="AW3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB3" t="n">
         <v>81</v>
       </c>
-      <c r="AX3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>126</v>
-      </c>
       <c r="BC3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD3" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>KCTDqtWs</t>
+          <t>QPtrDVTP</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1090,41 +1090,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>1.42</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K4" t="n">
         <v>2.38</v>
       </c>
-      <c r="K4" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -1133,136 +1133,136 @@
         <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R4" t="n">
         <v>2</v>
       </c>
-      <c r="R4" t="n">
-        <v>1.85</v>
-      </c>
       <c r="S4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X4" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Y4" t="n">
         <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO4" t="n">
         <v>7</v>
       </c>
-      <c r="AE4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL4" t="n">
+      <c r="AP4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR4" t="n">
         <v>41</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>51</v>
       </c>
       <c r="AS4" t="n">
         <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AX4" t="n">
         <v>8.5</v>
       </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB4" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BD4" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8A59j2KD</t>
+          <t>dU8lKnyg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1272,170 +1272,898 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Racing Montevideo</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>1.67</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="K5" t="n">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
+        <v>13</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2</v>
+      </c>
+      <c r="W5" t="n">
         <v>8</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W5" t="n">
-        <v>6.5</v>
-      </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD5" t="n">
         <v>7.5</v>
       </c>
-      <c r="AD5" t="n">
-        <v>6</v>
-      </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>15</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>12</v>
-      </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="n">
         <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AP5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>401</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>26</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>34</v>
       </c>
       <c r="BA5" t="n">
         <v>67</v>
       </c>
       <c r="BB5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>jT1cIQ55</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR6" t="n">
         <v>101</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="AS6" t="n">
         <v>301</v>
       </c>
-      <c r="BD5" t="inlineStr"/>
+      <c r="AT6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C66nTKo1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Castellon</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Racing Club Ferrol</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W7" t="n">
+        <v>7</v>
+      </c>
+      <c r="X7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>KCTDqtWs</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7</v>
+      </c>
+      <c r="X8" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8A59j2KD</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Racing Montevideo</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -898,7 +898,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>U5u5E51b</t>
+          <t>QPbwUUZq</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -908,74 +908,74 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>The Strongest</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>3.9</v>
+        <v>5.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="K3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N3" t="n">
+        <v>15</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R3" t="n">
         <v>2.2</v>
       </c>
-      <c r="L3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N3" t="n">
-        <v>10</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="S3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T3" t="n">
         <v>3.4</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="U3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V3" t="n">
         <v>2.1</v>
       </c>
-      <c r="R3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.83</v>
-      </c>
       <c r="W3" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
         <v>8.5</v>
@@ -984,67 +984,67 @@
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC3" t="n">
         <v>15</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AD3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH3" t="n">
         <v>17</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AI3" t="n">
         <v>29</v>
       </c>
-      <c r="AC3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE3" t="n">
+      <c r="AJ3" t="n">
         <v>17</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AK3" t="n">
         <v>51</v>
       </c>
-      <c r="AG3" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>41</v>
-      </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="n">
         <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ3" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS3" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="AU3" t="n">
         <v>8</v>
@@ -1052,35 +1052,31 @@
       <c r="AV3" t="n">
         <v>51</v>
       </c>
-      <c r="AW3" t="n">
-        <v>126</v>
-      </c>
+      <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AY3" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ3" t="n">
         <v>29</v>
       </c>
       <c r="BA3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC3" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD3" t="n">
         <v>151</v>
       </c>
+      <c r="BD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>QPtrDVTP</t>
+          <t>numnS84d</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1090,41 +1086,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Royal Pari</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Nacional Potosi</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.42</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
-        <v>4.33</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="J4" t="n">
-        <v>1.95</v>
+        <v>2.88</v>
       </c>
       <c r="K4" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -1136,133 +1132,129 @@
         <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V4" t="n">
         <v>2</v>
       </c>
-      <c r="S4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W4" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="X4" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC4" t="n">
         <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP4" t="n">
         <v>21</v>
       </c>
-      <c r="AF4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL4" t="n">
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
         <v>51</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>41</v>
       </c>
       <c r="AS4" t="n">
         <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AV4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC4" t="n">
         <v>151</v>
       </c>
-      <c r="AX4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>151</v>
-      </c>
+      <c r="BD4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>dU8lKnyg</t>
+          <t>zuWRfAuE</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1272,179 +1264,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.67</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N5" t="n">
-        <v>13</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.1</v>
-      </c>
       <c r="S5" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="T5" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="X5" t="n">
         <v>8.5</v>
       </c>
       <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU5" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AV5" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>401</v>
+        <v>126</v>
       </c>
       <c r="AX5" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AY5" t="n">
         <v>23</v>
       </c>
       <c r="AZ5" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="BA5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC5" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BD5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jT1cIQ55</t>
+          <t>hIB2BxiL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1454,95 +1446,95 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>America De Cali</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="H6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J6" t="n">
         <v>3.1</v>
       </c>
-      <c r="I6" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4</v>
-      </c>
       <c r="K6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L6" t="n">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P6" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE6" t="n">
         <v>19</v>
@@ -1550,74 +1542,72 @@
       <c r="AF6" t="n">
         <v>67</v>
       </c>
-      <c r="AG6" t="n">
-        <v>501</v>
-      </c>
+      <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AI6" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS6" t="n">
         <v>301</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW6" t="n">
         <v>126</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BC6" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BD6" t="n">
         <v>126</v>
@@ -1626,7 +1616,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C66nTKo1</t>
+          <t>xjmZ5GEr</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1636,116 +1626,116 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.57</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N7" t="n">
-        <v>11</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.03</v>
-      </c>
       <c r="S7" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W7" t="n">
+        <v>6</v>
+      </c>
+      <c r="X7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
         <v>7</v>
       </c>
-      <c r="X7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>11</v>
-      </c>
       <c r="AD7" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
         <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>251</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>15</v>
       </c>
-      <c r="AI7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>17</v>
-      </c>
       <c r="AK7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL7" t="n">
         <v>41</v>
@@ -1754,61 +1744,61 @@
         <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY7" t="n">
         <v>23</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>29</v>
       </c>
       <c r="AZ7" t="n">
         <v>34</v>
       </c>
       <c r="BA7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB7" t="n">
         <v>126</v>
       </c>
       <c r="BC7" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD7" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>KCTDqtWs</t>
+          <t>U5u5E51b</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1818,41 +1808,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="H8" t="n">
         <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>4.75</v>
+        <v>3.9</v>
       </c>
       <c r="J8" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
@@ -1861,16 +1851,16 @@
         <v>10</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
         <v>3.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -1885,31 +1875,31 @@
         <v>1.83</v>
       </c>
       <c r="W8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
         <v>9.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
@@ -1918,34 +1908,34 @@
         <v>301</v>
       </c>
       <c r="AH8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>13</v>
       </c>
-      <c r="AI8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>15</v>
-      </c>
       <c r="AK8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
         <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP8" t="n">
         <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR8" t="n">
         <v>51</v>
@@ -1957,40 +1947,40 @@
         <v>2.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB8" t="n">
         <v>81</v>
       </c>
-      <c r="AX8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>101</v>
-      </c>
       <c r="BC8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD8" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8A59j2KD</t>
+          <t>QPtrDVTP</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2000,65 +1990,65 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Racing Montevideo</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>1.42</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="I9" t="n">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="K9" t="n">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="L9" t="n">
+        <v>7</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P9" t="n">
         <v>4</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.63</v>
-      </c>
       <c r="Q9" t="n">
-        <v>2.35</v>
+        <v>1.8</v>
       </c>
       <c r="R9" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="T9" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="U9" t="n">
         <v>2</v>
@@ -2070,100 +2060,1732 @@
         <v>6.5</v>
       </c>
       <c r="X9" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE9" t="n">
         <v>21</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>67</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>401</v>
       </c>
       <c r="AH9" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AI9" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AJ9" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AK9" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AL9" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AM9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AP9" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AQ9" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AR9" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AS9" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV9" t="n">
         <v>67</v>
       </c>
-      <c r="AW9" t="inlineStr"/>
+      <c r="AW9" t="n">
+        <v>151</v>
+      </c>
       <c r="AX9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>dU8lKnyg</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I10" t="n">
         <v>5</v>
       </c>
-      <c r="AY9" t="n">
+      <c r="J10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N10" t="n">
+        <v>13</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2</v>
+      </c>
+      <c r="W10" t="n">
+        <v>8</v>
+      </c>
+      <c r="X10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>401</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>jT1cIQ55</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
         <v>19</v>
       </c>
-      <c r="AZ9" t="n">
+      <c r="AF11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP11" t="n">
         <v>34</v>
       </c>
-      <c r="BA9" t="n">
+      <c r="AQ11" t="n">
         <v>67</v>
       </c>
-      <c r="BB9" t="n">
+      <c r="AR11" t="n">
         <v>101</v>
       </c>
-      <c r="BC9" t="n">
+      <c r="AS11" t="n">
         <v>301</v>
       </c>
-      <c r="BD9" t="inlineStr"/>
+      <c r="AT11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>jLTDCqWA</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W12" t="n">
+        <v>7</v>
+      </c>
+      <c r="X12" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>0tUjsnHa</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA MX</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Club America</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Toluca</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W13" t="n">
+        <v>9</v>
+      </c>
+      <c r="X13" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C66nTKo1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Castellon</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Racing Club Ferrol</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N14" t="n">
+        <v>11</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W14" t="n">
+        <v>7</v>
+      </c>
+      <c r="X14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>KCTDqtWs</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N15" t="n">
+        <v>10</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W15" t="n">
+        <v>7</v>
+      </c>
+      <c r="X15" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>8A59j2KD</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Racing Montevideo</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW16" t="inlineStr"/>
+      <c r="AX16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>YTYD1SSE</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Defensor Sp.</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W17" t="n">
+        <v>8</v>
+      </c>
+      <c r="X17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Mg71hOk1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>21:15</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J18" t="n">
+        <v>8</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W18" t="n">
+        <v>13</v>
+      </c>
+      <c r="X18" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>251</v>
+      </c>
+      <c r="AS18" t="inlineStr"/>
+      <c r="AT18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW18" t="inlineStr"/>
+      <c r="AX18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD18"/>
+  <dimension ref="A1:BD16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
         <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -777,10 +777,10 @@
         <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S2" t="n">
         <v>1.29</v>
@@ -795,31 +795,31 @@
         <v>2.5</v>
       </c>
       <c r="W2" t="n">
+        <v>15</v>
+      </c>
+      <c r="X2" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC2" t="n">
         <v>17</v>
       </c>
-      <c r="X2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>19</v>
-      </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
         <v>34</v>
@@ -828,28 +828,28 @@
         <v>101</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
         <v>9</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM2" t="n">
         <v>19</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
         <v>21</v>
@@ -876,22 +876,22 @@
         <v>301</v>
       </c>
       <c r="AX2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ2" t="n">
         <v>17</v>
       </c>
       <c r="BA2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BB2" t="n">
         <v>41</v>
       </c>
       <c r="BC2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD2" t="inlineStr"/>
     </row>
@@ -927,28 +927,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K3" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L3" t="n">
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
         <v>1.18</v>
@@ -975,16 +975,16 @@
         <v>2.1</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y3" t="n">
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
         <v>12</v>
@@ -993,13 +993,13 @@
         <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
         <v>41</v>
@@ -1029,7 +1029,7 @@
         <v>3.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP3" t="n">
         <v>17</v>
@@ -1054,10 +1054,10 @@
       </c>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ3" t="n">
         <v>29</v>
@@ -1066,7 +1066,7 @@
         <v>81</v>
       </c>
       <c r="BB3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC3" t="n">
         <v>151</v>
@@ -1135,10 +1135,10 @@
         <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R4" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1147,10 +1147,10 @@
         <v>2.75</v>
       </c>
       <c r="U4" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
         <v>8.5</v>
@@ -1225,7 +1225,7 @@
         <v>2.75</v>
       </c>
       <c r="AU4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV4" t="n">
         <v>51</v>
@@ -1235,7 +1235,7 @@
         <v>5</v>
       </c>
       <c r="AY4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ4" t="n">
         <v>26</v>
@@ -1244,7 +1244,7 @@
         <v>51</v>
       </c>
       <c r="BB4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC4" t="n">
         <v>151</v>
@@ -1307,10 +1307,10 @@
         <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q5" t="n">
         <v>2.15</v>
@@ -1471,7 +1471,7 @@
         <v>2.8</v>
       </c>
       <c r="I6" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J6" t="n">
         <v>3.1</v>
@@ -1480,7 +1480,7 @@
         <v>1.91</v>
       </c>
       <c r="L6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.13</v>
@@ -1513,10 +1513,10 @@
         <v>1.62</v>
       </c>
       <c r="W6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y6" t="n">
         <v>10</v>
@@ -1540,7 +1540,7 @@
         <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="n">
@@ -1556,7 +1556,7 @@
         <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="n">
         <v>51</v>
@@ -1592,13 +1592,13 @@
         <v>126</v>
       </c>
       <c r="AX6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA6" t="n">
         <v>81</v>
@@ -1648,49 +1648,49 @@
         <v>2.05</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
         <v>4.1</v>
       </c>
       <c r="J7" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="R7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S7" t="n">
         <v>1.57</v>
       </c>
-      <c r="S7" t="n">
-        <v>1.53</v>
-      </c>
       <c r="T7" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W7" t="n">
         <v>6</v>
@@ -1705,28 +1705,28 @@
         <v>17</v>
       </c>
       <c r="AA7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
         <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AH7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI7" t="n">
         <v>19</v>
@@ -1741,10 +1741,10 @@
         <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO7" t="n">
         <v>12</v>
@@ -1759,10 +1759,10 @@
         <v>67</v>
       </c>
       <c r="AS7" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU7" t="n">
         <v>9</v>
@@ -1780,7 +1780,7 @@
         <v>23</v>
       </c>
       <c r="AZ7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA7" t="n">
         <v>81</v>
@@ -1789,7 +1789,7 @@
         <v>126</v>
       </c>
       <c r="BC7" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD7" t="n">
         <v>126</v>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H8" t="n">
         <v>3.5</v>
@@ -1845,16 +1845,16 @@
         <v>4.33</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q8" t="n">
         <v>2.1</v>
@@ -1956,7 +1956,7 @@
         <v>126</v>
       </c>
       <c r="AX8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY8" t="n">
         <v>21</v>
@@ -2009,22 +2009,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H9" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
@@ -2039,7 +2039,7 @@
         <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R9" t="n">
         <v>2</v>
@@ -2051,43 +2051,43 @@
         <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V9" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA9" t="n">
         <v>12</v>
       </c>
       <c r="AB9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC9" t="n">
         <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AH9" t="n">
         <v>19</v>
@@ -2096,7 +2096,7 @@
         <v>41</v>
       </c>
       <c r="AJ9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="n">
         <v>81</v>
@@ -2108,7 +2108,7 @@
         <v>51</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO9" t="n">
         <v>7</v>
@@ -2129,31 +2129,31 @@
         <v>3</v>
       </c>
       <c r="AU9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
         <v>151</v>
       </c>
       <c r="AX9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ9" t="n">
         <v>41</v>
       </c>
       <c r="BA9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB9" t="n">
         <v>151</v>
       </c>
       <c r="BC9" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD9" t="n">
         <v>151</v>
@@ -2191,13 +2191,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J10" t="n">
         <v>2.2</v>
@@ -2233,16 +2233,16 @@
         <v>3.5</v>
       </c>
       <c r="U10" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y10" t="n">
         <v>8.5</v>
@@ -2260,16 +2260,16 @@
         <v>13</v>
       </c>
       <c r="AD10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH10" t="n">
         <v>15</v>
@@ -2284,7 +2284,7 @@
         <v>51</v>
       </c>
       <c r="AL10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
         <v>41</v>
@@ -2391,16 +2391,16 @@
         <v>3.2</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q11" t="n">
         <v>2.63</v>
@@ -2555,13 +2555,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H12" t="n">
         <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J12" t="n">
         <v>3.4</v>
@@ -2639,7 +2639,7 @@
         <v>7</v>
       </c>
       <c r="AI12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ12" t="n">
         <v>11</v>
@@ -2702,7 +2702,7 @@
         <v>251</v>
       </c>
       <c r="BD12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
@@ -2737,19 +2737,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H13" t="n">
         <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J13" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L13" t="n">
         <v>3.6</v>
@@ -2788,7 +2788,7 @@
         <v>9</v>
       </c>
       <c r="X13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y13" t="n">
         <v>9</v>
@@ -2890,7 +2890,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C66nTKo1</t>
+          <t>8A59j2KD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2900,179 +2900,175 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Boston River</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Racing Montevideo</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.57</v>
+        <v>2.3</v>
       </c>
       <c r="H14" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="J14" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L14" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.83</v>
+        <v>2.35</v>
       </c>
       <c r="R14" t="n">
-        <v>2.03</v>
+        <v>1.54</v>
       </c>
       <c r="S14" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="T14" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="U14" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC14" t="n">
         <v>7.5</v>
       </c>
-      <c r="Y14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>11</v>
-      </c>
       <c r="AD14" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
         <v>17</v>
       </c>
       <c r="AF14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ14" t="n">
         <v>51</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AR14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS14" t="n">
         <v>251</v>
       </c>
-      <c r="AH14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>126</v>
-      </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="AU14" t="n">
         <v>8.5</v>
       </c>
       <c r="AV14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>81</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY14" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AZ14" t="n">
         <v>34</v>
       </c>
       <c r="BA14" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB14" t="n">
         <v>101</v>
       </c>
-      <c r="BB14" t="n">
-        <v>126</v>
-      </c>
       <c r="BC14" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>81</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="BD14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>KCTDqtWs</t>
+          <t>YTYD1SSE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3082,179 +3078,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="J15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T15" t="n">
         <v>2.38</v>
       </c>
-      <c r="K15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>5</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N15" t="n">
-        <v>10</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U15" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W15" t="n">
+        <v>8</v>
+      </c>
+      <c r="X15" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC15" t="n">
         <v>7</v>
       </c>
-      <c r="X15" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF15" t="n">
         <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH15" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AI15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK15" t="n">
         <v>23</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>51</v>
-      </c>
       <c r="AL15" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AM15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="AO15" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="AP15" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AQ15" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AR15" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS15" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="AU15" t="n">
         <v>8.5</v>
       </c>
       <c r="AV15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW15" t="n">
         <v>51</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AX15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB15" t="n">
         <v>81</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>101</v>
       </c>
       <c r="BC15" t="n">
         <v>251</v>
       </c>
       <c r="BD15" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8A59j2KD</t>
+          <t>Mg71hOk1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3264,7 +3260,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3274,518 +3270,158 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Racing Montevideo</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="I16" t="n">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="K16" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S16" t="n">
         <v>1.44</v>
       </c>
-      <c r="P16" t="n">
+      <c r="T16" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q16" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V16" t="n">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="W16" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="X16" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>251</v>
+      </c>
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU16" t="n">
         <v>10</v>
       </c>
-      <c r="Y16" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AV16" t="n">
         <v>81</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>67</v>
       </c>
       <c r="AW16" t="inlineStr"/>
       <c r="AX16" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="AY16" t="n">
-        <v>19</v>
+        <v>7.5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="BA16" t="n">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="BB16" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BC16" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BD16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>YTYD1SSE</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>27/11/2024</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>18:45</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Cerro Largo</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Defensor Sp.</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N17" t="n">
-        <v>7</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W17" t="n">
-        <v>8</v>
-      </c>
-      <c r="X17" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Mg71hOk1</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>27/11/2024</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>21:15</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Danubio</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Nacional</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H18" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="J18" t="n">
-        <v>8</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N18" t="n">
-        <v>10</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W18" t="n">
-        <v>13</v>
-      </c>
-      <c r="X18" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>201</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>251</v>
-      </c>
-      <c r="AS18" t="inlineStr"/>
-      <c r="AT18" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW18" t="inlineStr"/>
-      <c r="AX18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>23</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD16"/>
+  <dimension ref="A1:BD14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2_HT</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2_HT</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3_HT</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3_HT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3_HT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_3-3_HT</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1_HT</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2_HT</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2_HT</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3_HT</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MgX5nwjB</t>
+          <t>QPbwUUZq</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,167 +738,165 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>GV San Jose</t>
+          <t>The Strongest</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bolivar</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N2" t="n">
+        <v>13</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V2" t="n">
         <v>2.1</v>
       </c>
-      <c r="J2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N2" t="n">
-        <v>17</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2.5</v>
-      </c>
       <c r="W2" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="Y2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA2" t="n">
         <v>12</v>
       </c>
-      <c r="Z2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>21</v>
       </c>
-      <c r="AB2" t="n">
-        <v>23</v>
-      </c>
       <c r="AC2" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
         <v>7.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AM2" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS2" t="n">
         <v>101</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>301</v>
+        <v>6.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>4.5</v>
+        <v>23</v>
       </c>
       <c r="AY2" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="BA2" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="BB2" t="n">
-        <v>41</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>101</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>QPbwUUZq</t>
+          <t>numnS84d</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -908,7 +906,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -918,55 +916,55 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The Strongest</t>
+          <t>Royal Pari</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Nacional Potosi</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="J3" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.2</v>
       </c>
-      <c r="K3" t="n">
-        <v>2.38</v>
-      </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="R3" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="S3" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="T3" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="U3" t="n">
         <v>1.67</v>
@@ -975,28 +973,28 @@
         <v>2.1</v>
       </c>
       <c r="W3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y3" t="n">
         <v>9</v>
       </c>
-      <c r="X3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
         <v>13</v>
@@ -1005,78 +1003,78 @@
         <v>41</v>
       </c>
       <c r="AG3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS3" t="n">
         <v>151</v>
       </c>
-      <c r="AH3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>101</v>
-      </c>
       <c r="AT3" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
       </c>
-      <c r="AW3" t="inlineStr"/>
+      <c r="AW3" t="n">
+        <v>5</v>
+      </c>
       <c r="AX3" t="n">
-        <v>6.5</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ3" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="BA3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB3" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC3" t="n">
         <v>151</v>
       </c>
+      <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>numnS84d</t>
+          <t>zuWRfAuE</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1086,175 +1084,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Royal Pari</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nacional Potosi</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="H4" t="n">
         <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="J4" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
         <v>2.2</v>
       </c>
-      <c r="L4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.88</v>
-      </c>
       <c r="R4" t="n">
-        <v>1.93</v>
+        <v>1.65</v>
       </c>
       <c r="S4" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AI4" t="n">
         <v>17</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL4" t="n">
         <v>34</v>
       </c>
-      <c r="AL4" t="n">
-        <v>26</v>
-      </c>
       <c r="AM4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
         <v>12</v>
       </c>
       <c r="AP4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX4" t="n">
         <v>21</v>
       </c>
-      <c r="AQ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="n">
-        <v>5</v>
-      </c>
       <c r="AY4" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AZ4" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="BA4" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB4" t="n">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="BC4" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD4" t="inlineStr"/>
+        <v>126</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>zuWRfAuE</t>
+          <t>hIB2BxiL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1264,110 +1266,108 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>America De Cali</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="L5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>3.2</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="T5" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="n">
         <v>8</v>
       </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>10</v>
-      </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
         <v>13</v>
@@ -1379,55 +1379,55 @@
         <v>34</v>
       </c>
       <c r="AM5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>67</v>
       </c>
-      <c r="AS5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW5" t="n">
+      <c r="BA5" t="n">
         <v>126</v>
       </c>
-      <c r="AX5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>81</v>
-      </c>
       <c r="BB5" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="BC5" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
         <v>126</v>
@@ -1436,7 +1436,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>hIB2BxiL</t>
+          <t>xjmZ5GEr</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1456,98 +1456,100 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>America De Cali</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T6" t="n">
         <v>2.25</v>
       </c>
-      <c r="H6" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="U6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W6" t="n">
         <v>6</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W6" t="n">
-        <v>5.5</v>
-      </c>
       <c r="X6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA6" t="n">
         <v>21</v>
       </c>
-      <c r="AA6" t="n">
-        <v>23</v>
-      </c>
       <c r="AB6" t="n">
         <v>41</v>
       </c>
       <c r="AC6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD6" t="n">
         <v>6</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>5.5</v>
       </c>
       <c r="AE6" t="n">
         <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG6" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1250</v>
+      </c>
       <c r="AH6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
         <v>15</v>
@@ -1562,52 +1564,52 @@
         <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>81</v>
       </c>
-      <c r="AS6" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW6" t="n">
+      <c r="BA6" t="n">
         <v>126</v>
       </c>
-      <c r="AX6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>81</v>
-      </c>
       <c r="BB6" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC6" t="n">
         <v>126</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>351</v>
       </c>
       <c r="BD6" t="n">
         <v>126</v>
@@ -1616,7 +1618,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>xjmZ5GEr</t>
+          <t>U5u5E51b</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1626,179 +1628,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Cardiff</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>QPR</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="J7" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="K7" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>2.63</v>
+        <v>3.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="S7" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
         <v>17</v>
       </c>
       <c r="AA7" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB7" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD7" t="n">
         <v>6.5</v>
       </c>
-      <c r="AD7" t="n">
-        <v>6</v>
-      </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>1250</v>
+        <v>301</v>
       </c>
       <c r="AH7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI7" t="n">
         <v>19</v>
       </c>
       <c r="AJ7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK7" t="n">
         <v>41</v>
       </c>
       <c r="AL7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR7" t="n">
         <v>51</v>
       </c>
-      <c r="AN7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AS7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>67</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>41</v>
       </c>
       <c r="BA7" t="n">
         <v>81</v>
       </c>
       <c r="BB7" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC7" t="n">
         <v>126</v>
       </c>
-      <c r="BC7" t="n">
-        <v>351</v>
-      </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>U5u5E51b</t>
+          <t>QPtrDVTP</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1818,49 +1820,49 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.95</v>
+        <v>1.45</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.9</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>4.33</v>
+        <v>7.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="R8" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -1869,109 +1871,109 @@
         <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="W8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X8" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AA8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH8" t="n">
         <v>17</v>
       </c>
-      <c r="AB8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF8" t="n">
+      <c r="AI8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL8" t="n">
         <v>51</v>
       </c>
-      <c r="AG8" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>34</v>
-      </c>
       <c r="AM8" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="AO8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AP8" t="n">
         <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AR8" t="n">
         <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT8" t="n">
         <v>2.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>451</v>
+      </c>
+      <c r="BC8" t="n">
         <v>126</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>201</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -1980,7 +1982,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>QPtrDVTP</t>
+          <t>dU8lKnyg</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2000,160 +2002,160 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.45</v>
+        <v>1.73</v>
       </c>
       <c r="H9" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K9" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L9" t="n">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S9" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="T9" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="W9" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="X9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI9" t="n">
         <v>26</v>
       </c>
-      <c r="AC9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD9" t="n">
+      <c r="AJ9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU9" t="n">
         <v>7.5</v>
       </c>
-      <c r="AE9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK9" t="n">
+      <c r="AV9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA9" t="n">
         <v>81</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>126</v>
       </c>
       <c r="BB9" t="n">
         <v>151</v>
       </c>
       <c r="BC9" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="BD9" t="n">
         <v>151</v>
@@ -2162,7 +2164,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dU8lKnyg</t>
+          <t>jT1cIQ55</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2182,169 +2184,169 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.7</v>
+        <v>3.25</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="J10" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>2.4</v>
+        <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
+        <v>7</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y10" t="n">
         <v>13</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P10" t="n">
+      <c r="Z10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW10" t="n">
         <v>4.33</v>
       </c>
-      <c r="Q10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X10" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH10" t="n">
+      <c r="AX10" t="n">
         <v>15</v>
       </c>
-      <c r="AI10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK10" t="n">
+      <c r="AY10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>51</v>
       </c>
-      <c r="AL10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>401</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>26</v>
-      </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="n">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="BC10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jT1cIQ55</t>
+          <t>jLTDCqWA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2354,7 +2356,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2364,85 +2366,85 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Derby</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Swansea</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.35</v>
+        <v>2.8</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
         <v>1.95</v>
       </c>
       <c r="L11" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
+        <v>8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W11" t="n">
         <v>6.5</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W11" t="n">
-        <v>7.5</v>
-      </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB11" t="n">
         <v>34</v>
       </c>
-      <c r="AA11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>41</v>
-      </c>
       <c r="AC11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
         <v>19</v>
@@ -2451,82 +2453,82 @@
         <v>67</v>
       </c>
       <c r="AG11" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH11" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AJ11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AL11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM11" t="n">
         <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AO11" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AP11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS11" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV11" t="n">
         <v>67</v>
       </c>
       <c r="AW11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC11" t="n">
         <v>126</v>
       </c>
-      <c r="AX11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>251</v>
-      </c>
       <c r="BD11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jLTDCqWA</t>
+          <t>0tUjsnHa</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2536,179 +2538,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Derby</t>
+          <t>Club America</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Swansea</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
         <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="K12" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L12" t="n">
         <v>3.6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="R12" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="T12" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="V12" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="W12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X12" t="n">
         <v>11</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB12" t="n">
         <v>23</v>
       </c>
-      <c r="AB12" t="n">
-        <v>41</v>
-      </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
         <v>6.5</v>
       </c>
       <c r="AE12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI12" t="n">
         <v>17</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AJ12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA12" t="n">
         <v>67</v>
       </c>
-      <c r="AG12" t="n">
-        <v>451</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW12" t="n">
+      <c r="BB12" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD12" t="n">
         <v>126</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0tUjsnHa</t>
+          <t>YTYD1SSE</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2718,179 +2720,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Club America</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Toluca</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="J13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P13" t="n">
         <v>2.75</v>
       </c>
-      <c r="K13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N13" t="n">
-        <v>13</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
       <c r="Q13" t="n">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="R13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U13" t="n">
         <v>2</v>
       </c>
-      <c r="S13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.62</v>
-      </c>
       <c r="V13" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="W13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X13" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI13" t="n">
         <v>11</v>
       </c>
-      <c r="Y13" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z13" t="n">
+      <c r="AJ13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL13" t="n">
         <v>21</v>
       </c>
-      <c r="AA13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK13" t="n">
+      <c r="AM13" t="n">
         <v>34</v>
       </c>
-      <c r="AL13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM13" t="n">
+      <c r="AN13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP13" t="n">
         <v>29</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW13" t="n">
         <v>4.33</v>
       </c>
-      <c r="AO13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AX13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ13" t="n">
         <v>51</v>
       </c>
-      <c r="AS13" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV13" t="n">
+      <c r="BA13" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC13" t="n">
         <v>51</v>
       </c>
-      <c r="AW13" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA13" t="n">
+      <c r="BD13" t="n">
         <v>51</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8A59j2KD</t>
+          <t>Mg71hOk1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2900,7 +2902,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2910,518 +2912,158 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Racing Montevideo</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="H14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J14" t="n">
+        <v>8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W14" t="n">
+        <v>13</v>
+      </c>
+      <c r="X14" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW14" t="n">
         <v>3.2</v>
       </c>
-      <c r="I14" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N14" t="n">
-        <v>8</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X14" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC14" t="n">
+      <c r="AX14" t="n">
         <v>7.5</v>
       </c>
-      <c r="AD14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ14" t="n">
+      <c r="AY14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA14" t="n">
         <v>51</v>
       </c>
-      <c r="AR14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>67</v>
-      </c>
       <c r="BB14" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>301</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="BC14" t="inlineStr"/>
       <c r="BD14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>YTYD1SSE</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>27/11/2024</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>18:45</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Cerro Largo</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Defensor Sp.</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>7</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W15" t="n">
-        <v>8</v>
-      </c>
-      <c r="X15" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Mg71hOk1</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>27/11/2024</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>21:15</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Danubio</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Nacional</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="J16" t="n">
-        <v>8</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N16" t="n">
-        <v>10</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W16" t="n">
-        <v>13</v>
-      </c>
-      <c r="X16" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>201</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>251</v>
-      </c>
-      <c r="AS16" t="inlineStr"/>
-      <c r="AT16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>23</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD14"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,10 +765,10 @@
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
         <v>1.18</v>
@@ -925,13 +925,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
@@ -940,7 +940,7 @@
         <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -967,10 +967,10 @@
         <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
         <v>8.5</v>
@@ -979,7 +979,7 @@
         <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
         <v>21</v>
@@ -1018,7 +1018,7 @@
         <v>34</v>
       </c>
       <c r="AL3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM3" t="n">
         <v>34</v>
@@ -1045,7 +1045,7 @@
         <v>2.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
@@ -1109,7 +1109,7 @@
         <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J4" t="n">
         <v>2.75</v>
@@ -1166,13 +1166,13 @@
         <v>19</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>17</v>
@@ -1285,28 +1285,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="K5" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.53</v>
@@ -1327,25 +1327,25 @@
         <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y5" t="n">
         <v>10</v>
       </c>
-      <c r="Y5" t="n">
-        <v>11</v>
-      </c>
       <c r="Z5" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
@@ -1354,7 +1354,7 @@
         <v>5.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
@@ -1364,37 +1364,37 @@
       </c>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="n">
         <v>51</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="n">
         <v>301</v>
@@ -1409,19 +1409,19 @@
         <v>81</v>
       </c>
       <c r="AW5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AY5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB5" t="n">
         <v>351</v>
@@ -1465,16 +1465,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K6" t="n">
         <v>1.95</v>
@@ -1483,10 +1483,10 @@
         <v>4.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -1513,10 +1513,10 @@
         <v>1.67</v>
       </c>
       <c r="W6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y6" t="n">
         <v>9.5</v>
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
@@ -1546,7 +1546,7 @@
         <v>1250</v>
       </c>
       <c r="AH6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI6" t="n">
         <v>19</v>
@@ -1585,10 +1585,10 @@
         <v>2.25</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW6" t="n">
         <v>5.5</v>
@@ -1618,7 +1618,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>U5u5E51b</t>
+          <t>0tUjsnHa</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1628,179 +1628,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Cardiff</t>
+          <t>Club America</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>QPR</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="J7" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" t="n">
+        <v>13</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V7" t="n">
         <v>2.2</v>
       </c>
-      <c r="L7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="W7" t="n">
         <v>9</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W7" t="n">
-        <v>7</v>
-      </c>
       <c r="X7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="n">
         <v>17</v>
       </c>
       <c r="AB7" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AD7" t="n">
         <v>6.5</v>
       </c>
       <c r="AE7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI7" t="n">
         <v>17</v>
       </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AM7" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP7" t="n">
         <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
         <v>51</v>
       </c>
       <c r="AS7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX7" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AZ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA7" t="n">
         <v>67</v>
       </c>
-      <c r="BA7" t="n">
-        <v>81</v>
-      </c>
       <c r="BB7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC7" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD7" t="n">
         <v>126</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>QPtrDVTP</t>
+          <t>YTYD1SSE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1810,179 +1810,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W8" t="n">
         <v>8</v>
       </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="X8" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>10</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W8" t="n">
-        <v>6</v>
-      </c>
-      <c r="X8" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y8" t="n">
+      <c r="AK8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU8" t="n">
         <v>8.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>10</v>
       </c>
       <c r="AV8" t="n">
         <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>8.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX8" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AY8" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>451</v>
+        <v>251</v>
       </c>
       <c r="BC8" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dU8lKnyg</t>
+          <t>Mg71hOk1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1992,1078 +1992,168 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blackburn</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.73</v>
+        <v>6.5</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5</v>
+        <v>1.45</v>
       </c>
       <c r="J9" t="n">
+        <v>8</v>
+      </c>
+      <c r="K9" t="n">
         <v>2.2</v>
       </c>
-      <c r="K9" t="n">
-        <v>2.4</v>
-      </c>
       <c r="L9" t="n">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W9" t="n">
         <v>13</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC9" t="n">
         <v>8.5</v>
       </c>
-      <c r="X9" t="n">
+      <c r="AD9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>9</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AK9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK9" t="n">
+      <c r="AO9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP9" t="n">
         <v>51</v>
       </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>17</v>
-      </c>
       <c r="AQ9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>251</v>
+      </c>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY9" t="n">
         <v>23</v>
       </c>
-      <c r="AR9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX9" t="n">
+      <c r="AZ9" t="n">
         <v>23</v>
       </c>
-      <c r="AY9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>67</v>
-      </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB9" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>401</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>jT1cIQ55</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>27/11/2024</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>16:45</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Portsmouth</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Millwall</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>7</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X10" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>jLTDCqWA</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>27/11/2024</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Derby</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Swansea</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N11" t="n">
-        <v>8</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X11" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>451</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>0tUjsnHa</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>27/11/2024</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA MX</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Club America</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Toluca</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N12" t="n">
-        <v>13</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W12" t="n">
-        <v>9</v>
-      </c>
-      <c r="X12" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>YTYD1SSE</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>27/11/2024</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>18:45</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Cerro Largo</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Defensor Sp.</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>7</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W13" t="n">
-        <v>8</v>
-      </c>
-      <c r="X13" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Mg71hOk1</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>27/11/2024</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>21:15</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Danubio</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Nacional</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="J14" t="n">
-        <v>8</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N14" t="n">
-        <v>10</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W14" t="n">
-        <v>13</v>
-      </c>
-      <c r="X14" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AQ14" t="n">
         <v>201</v>
       </c>
-      <c r="AR14" t="n">
-        <v>251</v>
-      </c>
-      <c r="AS14" t="inlineStr"/>
-      <c r="AT14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC14" t="inlineStr"/>
-      <c r="BD14" t="inlineStr"/>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1_HT</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2_HT</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2_HT</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3_HT</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3_HT</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -750,7 +750,7 @@
         <v>1.65</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
         <v>5.25</v>
@@ -759,10 +759,10 @@
         <v>2.2</v>
       </c>
       <c r="K2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -771,28 +771,28 @@
         <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V2" t="n">
         <v>2.2</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2.1</v>
       </c>
       <c r="W2" t="n">
         <v>9</v>
@@ -813,10 +813,10 @@
         <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -828,7 +828,7 @@
         <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
         <v>29</v>
@@ -840,19 +840,19 @@
         <v>51</v>
       </c>
       <c r="AL2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
         <v>8.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ2" t="n">
         <v>23</v>
@@ -861,36 +861,38 @@
         <v>41</v>
       </c>
       <c r="AS2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.5</v>
+        <v>301</v>
       </c>
       <c r="AX2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>23</v>
       </c>
-      <c r="AY2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>81</v>
-      </c>
       <c r="BA2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB2" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC2" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>126</v>
+      </c>
       <c r="BD2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -937,7 +939,7 @@
         <v>2.88</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L3" t="n">
         <v>3.6</v>
@@ -955,16 +957,16 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
         <v>1.73</v>
@@ -1024,7 +1026,7 @@
         <v>34</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO3" t="n">
         <v>12</v>
@@ -1039,36 +1041,36 @@
         <v>51</v>
       </c>
       <c r="AS3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC3" t="n">
         <v>151</v>
       </c>
-      <c r="AT3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -1103,13 +1105,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J4" t="n">
         <v>2.75</v>
@@ -1118,7 +1120,7 @@
         <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -1139,10 +1141,10 @@
         <v>1.65</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U4" t="n">
         <v>1.95</v>
@@ -1160,19 +1162,19 @@
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
         <v>17</v>
@@ -1184,10 +1186,10 @@
         <v>351</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
         <v>13</v>
@@ -1205,7 +1207,7 @@
         <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
@@ -1220,7 +1222,7 @@
         <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU4" t="n">
         <v>8.5</v>
@@ -1229,25 +1231,25 @@
         <v>67</v>
       </c>
       <c r="AW4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX4" t="n">
         <v>5.5</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AY4" t="n">
         <v>21</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AZ4" t="n">
         <v>34</v>
       </c>
-      <c r="AZ4" t="n">
-        <v>67</v>
-      </c>
       <c r="BA4" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB4" t="n">
         <v>101</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BC4" t="n">
         <v>251</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>126</v>
       </c>
       <c r="BD4" t="n">
         <v>126</v>
@@ -1285,28 +1287,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H5" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
         <v>1.53</v>
@@ -1327,22 +1329,22 @@
         <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
         <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="n">
         <v>21</v>
@@ -1351,7 +1353,7 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
@@ -1364,16 +1366,16 @@
       </c>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="n">
         <v>41</v>
@@ -1382,10 +1384,10 @@
         <v>51</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
         <v>29</v>
@@ -1409,25 +1411,25 @@
         <v>81</v>
       </c>
       <c r="AW5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX5" t="n">
         <v>5.5</v>
       </c>
-      <c r="AX5" t="n">
-        <v>26</v>
-      </c>
       <c r="AY5" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="BA5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB5" t="n">
         <v>151</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BC5" t="n">
         <v>351</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>126</v>
       </c>
       <c r="BD5" t="n">
         <v>126</v>
@@ -1468,10 +1470,10 @@
         <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J6" t="n">
         <v>2.75</v>
@@ -1483,10 +1485,10 @@
         <v>4.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -1591,25 +1593,25 @@
         <v>81</v>
       </c>
       <c r="AW6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX6" t="n">
         <v>5.5</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AY6" t="n">
         <v>23</v>
       </c>
-      <c r="AY6" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA6" t="n">
         <v>81</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BB6" t="n">
         <v>126</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BC6" t="n">
         <v>351</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>126</v>
       </c>
       <c r="BD6" t="n">
         <v>126</v>
@@ -1668,7 +1670,7 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O7" t="n">
         <v>1.22</v>
@@ -1677,16 +1679,16 @@
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U7" t="n">
         <v>1.62</v>
@@ -1749,10 +1751,10 @@
         <v>4.33</v>
       </c>
       <c r="AO7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
         <v>41</v>
@@ -1764,7 +1766,7 @@
         <v>126</v>
       </c>
       <c r="AT7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU7" t="n">
         <v>7.5</v>
@@ -1773,25 +1775,25 @@
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>5</v>
+        <v>501</v>
       </c>
       <c r="AX7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY7" t="n">
         <v>17</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AZ7" t="n">
         <v>23</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="BA7" t="n">
         <v>51</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BB7" t="n">
         <v>67</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BC7" t="n">
         <v>151</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>501</v>
       </c>
       <c r="BD7" t="n">
         <v>126</v>
@@ -1800,7 +1802,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>YTYD1SSE</t>
+          <t>Mg71hOk1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1810,7 +1812,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1820,340 +1822,158 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cerro Largo</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Defensor Sp.</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J8" t="n">
+        <v>8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W8" t="n">
+        <v>13</v>
+      </c>
+      <c r="X8" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="n">
         <v>3.2</v>
       </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>7</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W8" t="n">
-        <v>8</v>
-      </c>
-      <c r="X8" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF8" t="n">
+      <c r="AY8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB8" t="n">
         <v>51</v>
       </c>
-      <c r="AG8" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>251</v>
-      </c>
       <c r="BC8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Mg71hOk1</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>27/11/2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>21:15</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Danubio</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Nacional</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="J9" t="n">
-        <v>8</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W9" t="n">
-        <v>13</v>
-      </c>
-      <c r="X9" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AQ9" t="n">
         <v>201</v>
       </c>
-      <c r="AR9" t="n">
-        <v>251</v>
-      </c>
-      <c r="AS9" t="inlineStr"/>
-      <c r="AT9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC9" t="inlineStr"/>
-      <c r="BD9" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="K2" t="n">
         <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -795,7 +795,7 @@
         <v>2.2</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X2" t="n">
         <v>9</v>
@@ -804,7 +804,7 @@
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
         <v>12</v>
@@ -828,37 +828,37 @@
         <v>151</v>
       </c>
       <c r="AH2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>19</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>17</v>
       </c>
       <c r="AK2" t="n">
         <v>51</v>
       </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN2" t="n">
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AP2" t="n">
         <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS2" t="n">
         <v>81</v>
@@ -867,31 +867,31 @@
         <v>3.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AX2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD2" t="inlineStr"/>
     </row>
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I3" t="n">
         <v>3.3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.2</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
@@ -957,10 +957,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R3" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>
@@ -969,10 +969,10 @@
         <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W3" t="n">
         <v>8.5</v>
@@ -981,7 +981,7 @@
         <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
         <v>21</v>
@@ -1005,7 +1005,7 @@
         <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH3" t="n">
         <v>11</v>
@@ -1020,7 +1020,7 @@
         <v>34</v>
       </c>
       <c r="AL3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM3" t="n">
         <v>34</v>
@@ -1105,13 +1105,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H4" t="n">
         <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J4" t="n">
         <v>2.75</v>
@@ -1120,7 +1120,7 @@
         <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -1135,16 +1135,16 @@
         <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R4" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U4" t="n">
         <v>1.95</v>
@@ -1162,16 +1162,16 @@
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1186,10 +1186,10 @@
         <v>351</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
         <v>13</v>
@@ -1207,7 +1207,7 @@
         <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
@@ -1222,7 +1222,7 @@
         <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU4" t="n">
         <v>8.5</v>
@@ -1290,10 +1290,10 @@
         <v>2.15</v>
       </c>
       <c r="H5" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I5" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J5" t="n">
         <v>3</v>
@@ -1302,7 +1302,7 @@
         <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.13</v>
@@ -1329,31 +1329,31 @@
         <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W5" t="n">
         <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
@@ -1366,10 +1366,10 @@
       </c>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ5" t="n">
         <v>15</v>
@@ -1393,7 +1393,7 @@
         <v>29</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
         <v>81</v>
@@ -1467,16 +1467,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K6" t="n">
         <v>1.95</v>
@@ -1503,10 +1503,10 @@
         <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U6" t="n">
         <v>2.1</v>
@@ -1515,10 +1515,10 @@
         <v>1.67</v>
       </c>
       <c r="W6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y6" t="n">
         <v>9.5</v>
@@ -1548,7 +1548,7 @@
         <v>1250</v>
       </c>
       <c r="AH6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI6" t="n">
         <v>19</v>
@@ -1584,13 +1584,13 @@
         <v>251</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
         <v>126</v>
@@ -1602,7 +1602,7 @@
         <v>23</v>
       </c>
       <c r="AZ6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA6" t="n">
         <v>81</v>
@@ -1649,52 +1649,52 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J7" t="n">
         <v>2.75</v>
       </c>
       <c r="K7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="R7" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W7" t="n">
         <v>9</v>
@@ -1715,7 +1715,7 @@
         <v>23</v>
       </c>
       <c r="AC7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
         <v>6.5</v>
@@ -1733,7 +1733,7 @@
         <v>12</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ7" t="n">
         <v>12</v>
@@ -1742,7 +1742,7 @@
         <v>34</v>
       </c>
       <c r="AL7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM7" t="n">
         <v>29</v>
@@ -1754,7 +1754,7 @@
         <v>11</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
         <v>41</v>
@@ -1766,7 +1766,7 @@
         <v>126</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
         <v>7.5</v>
@@ -1831,13 +1831,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="J8" t="n">
         <v>8</v>
@@ -1900,10 +1900,10 @@
         <v>8.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF8" t="n">
         <v>101</v>
@@ -1912,13 +1912,13 @@
         <v>101</v>
       </c>
       <c r="AH8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI8" t="n">
         <v>5.5</v>
       </c>
-      <c r="AI8" t="n">
-        <v>6</v>
-      </c>
       <c r="AJ8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK8" t="n">
         <v>9</v>
@@ -1949,7 +1949,7 @@
         <v>2.63</v>
       </c>
       <c r="AU8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV8" t="n">
         <v>81</v>
@@ -1971,7 +1971,7 @@
         <v>51</v>
       </c>
       <c r="BC8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD8" t="inlineStr"/>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2_HT</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2_HT</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3_HT</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3_HT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3_HT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_3-3_HT</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1_HT</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2_HT</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2_HT</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3_HT</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>QPbwUUZq</t>
+          <t>numnS84d</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,85 +738,85 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The Strongest</t>
+          <t>Royal Pari</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Nacional Potosi</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="J2" t="n">
-        <v>2.05</v>
+        <v>2.88</v>
       </c>
       <c r="K2" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>1.85</v>
       </c>
       <c r="R2" t="n">
-        <v>2.35</v>
+        <v>1.95</v>
       </c>
       <c r="S2" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="T2" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y2" t="n">
         <v>9</v>
       </c>
-      <c r="Y2" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC2" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -828,43 +828,43 @@
         <v>151</v>
       </c>
       <c r="AH2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP2" t="n">
         <v>21</v>
       </c>
-      <c r="AI2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK2" t="n">
+      <c r="AQ2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR2" t="n">
         <v>51</v>
       </c>
-      <c r="AL2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>34</v>
-      </c>
       <c r="AS2" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="AU2" t="n">
         <v>7.5</v>
@@ -873,32 +873,30 @@
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>351</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ2" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="BA2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB2" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC2" t="n">
         <v>151</v>
       </c>
+      <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>numnS84d</t>
+          <t>zuWRfAuE</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -908,175 +906,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Royal Pari</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nacional Potosi</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q3" t="n">
         <v>2.15</v>
       </c>
-      <c r="H3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N3" t="n">
-        <v>11</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.85</v>
-      </c>
       <c r="R3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U3" t="n">
         <v>1.95</v>
       </c>
-      <c r="S3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.67</v>
-      </c>
       <c r="V3" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X3" t="n">
         <v>8.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>11</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
         <v>17</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO3" t="n">
         <v>11</v>
       </c>
-      <c r="AD3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>12</v>
-      </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC3" t="n">
         <v>126</v>
       </c>
-      <c r="AT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD3" t="inlineStr"/>
+      <c r="BD3" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>zuWRfAuE</t>
+          <t>xjmZ5GEr</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1086,131 +1088,131 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>2.05</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.67</v>
       </c>
-      <c r="S4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA4" t="n">
         <v>19</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>351</v>
+        <v>1250</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK4" t="n">
         <v>41</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO4" t="n">
         <v>12</v>
       </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
         <v>41</v>
@@ -1219,37 +1221,37 @@
         <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV4" t="n">
         <v>67</v>
       </c>
       <c r="AW4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA4" t="n">
         <v>126</v>
       </c>
-      <c r="AX4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>81</v>
-      </c>
       <c r="BB4" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="BC4" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
         <v>126</v>
@@ -1258,7 +1260,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>hIB2BxiL</t>
+          <t>0tUjsnHa</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1268,168 +1270,170 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>Club America</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>America De Cali</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>2.15</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N5" t="n">
+        <v>13</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T5" t="n">
         <v>3</v>
       </c>
-      <c r="K5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N5" t="n">
-        <v>6</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.2</v>
-      </c>
       <c r="U5" t="n">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="V5" t="n">
-        <v>1.57</v>
+        <v>2.1</v>
       </c>
       <c r="W5" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="X5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y5" t="n">
         <v>9</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>10</v>
       </c>
       <c r="Z5" t="n">
         <v>21</v>
       </c>
       <c r="AA5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB5" t="n">
         <v>23</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AC5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF5" t="n">
         <v>41</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AG5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
         <v>5.5</v>
       </c>
-      <c r="AD5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI5" t="n">
+      <c r="AX5" t="n">
         <v>17</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>5.5</v>
       </c>
       <c r="AY5" t="n">
         <v>23</v>
       </c>
       <c r="AZ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB5" t="n">
         <v>151</v>
       </c>
       <c r="BC5" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BD5" t="n">
         <v>126</v>
@@ -1438,7 +1442,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>xjmZ5GEr</t>
+          <t>Mg71hOk1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1448,532 +1452,168 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.05</v>
+        <v>7.5</v>
       </c>
       <c r="H6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W6" t="n">
+        <v>13</v>
+      </c>
+      <c r="X6" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>251</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>301</v>
+      </c>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW6" t="n">
         <v>3.1</v>
       </c>
-      <c r="I6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="AX6" t="n">
         <v>7</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6</v>
-      </c>
-      <c r="X6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>5.5</v>
       </c>
       <c r="AY6" t="n">
         <v>23</v>
       </c>
       <c r="AZ6" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="BA6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB6" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>0tUjsnHa</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>27/11/2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA MX</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Club America</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Toluca</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N7" t="n">
-        <v>11</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W7" t="n">
-        <v>9</v>
-      </c>
-      <c r="X7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Mg71hOk1</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>27/11/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>21:15</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Danubio</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Nacional</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>7</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="J8" t="n">
-        <v>8</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>10</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W8" t="n">
-        <v>13</v>
-      </c>
-      <c r="X8" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AR8" t="n">
         <v>251</v>
       </c>
-      <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>23</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD8" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BD26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1_HT</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2_HT</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2_HT</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3_HT</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3_HT</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,184 +718,4504 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>MgX5nwjB</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>GV San Jose</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Bolivar</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N2" t="n">
+        <v>17</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>15</v>
+      </c>
+      <c r="X2" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>301</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>QPbwUUZq</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>The Strongest</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N3" t="n">
+        <v>15</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>numnS84d</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Royal Pari</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nacional Potosi</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N4" t="n">
+        <v>11</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>9</v>
+      </c>
+      <c r="X4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>zuWRfAuE</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE A BETANO</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>hIB2BxiL</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Deportes Tolima</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>America De Cali</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>xjmZ5GEr</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>27/11/2024</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>22:30</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Once Caldas</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Junior</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="G7" t="n">
         <v>1.95</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H7" t="n">
         <v>3.1</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I7" t="n">
         <v>4.33</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J7" t="n">
         <v>2.75</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K7" t="n">
         <v>1.95</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L7" t="n">
         <v>5</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M7" t="n">
         <v>1.1</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N7" t="n">
         <v>7</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O7" t="n">
         <v>1.44</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P7" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q7" t="n">
         <v>2.4</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R7" t="n">
         <v>1.53</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S7" t="n">
         <v>1.53</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T7" t="n">
         <v>2.38</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U7" t="n">
         <v>2.2</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V7" t="n">
         <v>1.62</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W7" t="n">
         <v>5.5</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X7" t="n">
         <v>8</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y7" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z7" t="n">
         <v>17</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA7" t="n">
         <v>19</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB7" t="n">
         <v>41</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC7" t="n">
         <v>6.5</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD7" t="n">
         <v>6</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE7" t="n">
         <v>19</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF7" t="n">
         <v>67</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG7" t="n">
         <v>1250</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH7" t="n">
         <v>9</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI7" t="n">
         <v>19</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ7" t="n">
         <v>15</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK7" t="n">
         <v>41</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL7" t="n">
         <v>41</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM7" t="n">
         <v>51</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN7" t="n">
         <v>3.75</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO7" t="n">
         <v>11</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP7" t="n">
         <v>26</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ7" t="n">
         <v>41</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR7" t="n">
         <v>67</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS7" t="n">
         <v>251</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT7" t="n">
         <v>2.38</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU7" t="n">
         <v>9.5</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV7" t="n">
         <v>81</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX7" t="n">
         <v>6</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AY7" t="n">
         <v>26</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AZ7" t="n">
         <v>41</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="BA7" t="n">
         <v>101</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BB7" t="n">
         <v>151</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BC7" t="n">
         <v>351</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD7" t="n">
         <v>126</v>
       </c>
-      <c r="BD2" t="n">
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>tfICbHRE</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Slovacko</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6</v>
+      </c>
+      <c r="X8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB8" t="n">
         <v>126</v>
       </c>
+      <c r="BC8" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>U5u5E51b</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7</v>
+      </c>
+      <c r="X9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>QPtrDVTP</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6</v>
+      </c>
+      <c r="X10" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>451</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>dU8lKnyg</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>13</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>401</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>jT1cIQ55</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>jLTDCqWA</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>t6QxX6zL</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Dinamo Tbilisi</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Dinamo Batumi</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N14" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W14" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="X14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>27</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>110</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>150</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>350</v>
+      </c>
+      <c r="BD14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>KjxUYS58</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Samtredia</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Dila Gori</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N15" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="W15" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="X15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW15" t="inlineStr"/>
+      <c r="AX15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>27</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>60</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>250</v>
+      </c>
+      <c r="BD15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>f9UtWQkR</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Telavi</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Samgurali</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N16" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="W16" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="X16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW16" t="inlineStr"/>
+      <c r="AX16" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>70</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>100</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>250</v>
+      </c>
+      <c r="BD16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ClH8Rpbr</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Iberia 1999</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Kolkheti 1913</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P17" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="T17" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="W17" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X17" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW17" t="inlineStr"/>
+      <c r="AX17" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>350</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>400</v>
+      </c>
+      <c r="BD17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>bsyYXnLE</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Torpedo Kutaisi</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Gagra</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W18" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="X18" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW18" t="inlineStr"/>
+      <c r="AX18" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>37</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>37</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>450</v>
+      </c>
+      <c r="BD18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>niBRS6GM</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>INDIA - ISL</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Mohammedan</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Bengaluru FC</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N19" t="n">
+        <v>11</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2</v>
+      </c>
+      <c r="W19" t="n">
+        <v>10</v>
+      </c>
+      <c r="X19" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="inlineStr"/>
+      <c r="AX19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>0tUjsnHa</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA MX</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Club America</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Toluca</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C66nTKo1</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Castellon</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Racing Club Ferrol</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W21" t="n">
+        <v>7</v>
+      </c>
+      <c r="X21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>KCTDqtWs</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N22" t="n">
+        <v>10</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W22" t="n">
+        <v>7</v>
+      </c>
+      <c r="X22" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>0vJhfpLl</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Fenix</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Maldonado</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N23" t="n">
+        <v>9</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W23" t="n">
+        <v>6</v>
+      </c>
+      <c r="X23" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW23" t="inlineStr"/>
+      <c r="AX23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>8A59j2KD</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Racing Montevideo</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW24" t="inlineStr"/>
+      <c r="AX24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>YTYD1SSE</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Defensor Sp.</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X25" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Mg71hOk1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>21:15</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N26" t="n">
+        <v>10</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W26" t="n">
+        <v>13</v>
+      </c>
+      <c r="X26" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>251</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>301</v>
+      </c>
+      <c r="AS26" t="inlineStr"/>
+      <c r="AT26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW26" t="inlineStr"/>
+      <c r="AX26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
